--- a/Data/Topic_model_tfidf/tfdif_multiple_0.8.xlsx
+++ b/Data/Topic_model_tfidf/tfdif_multiple_0.8.xlsx
@@ -150,12 +150,12 @@
     <t>speak</t>
   </si>
   <si>
+    <t>regardless</t>
+  </si>
+  <si>
     <t>prevent</t>
   </si>
   <si>
-    <t>regardless</t>
-  </si>
-  <si>
     <t>anymore</t>
   </si>
   <si>
@@ -192,12 +192,12 @@
     <t>set</t>
   </si>
   <si>
+    <t>yet</t>
+  </si>
+  <si>
     <t>trip</t>
   </si>
   <si>
-    <t>yet</t>
-  </si>
-  <si>
     <t>lose</t>
   </si>
   <si>
@@ -348,12 +348,12 @@
     <t>wait</t>
   </si>
   <si>
+    <t>ask</t>
+  </si>
+  <si>
     <t>elevator</t>
   </si>
   <si>
-    <t>ask</t>
-  </si>
-  <si>
     <t>let</t>
   </si>
   <si>
@@ -498,12 +498,12 @@
     <t>rush</t>
   </si>
   <si>
+    <t>ttcstationr</t>
+  </si>
+  <si>
     <t>jump</t>
   </si>
   <si>
-    <t>ttcstationr</t>
-  </si>
-  <si>
     <t>roll</t>
   </si>
   <si>
@@ -516,15 +516,15 @@
     <t>position</t>
   </si>
   <si>
+    <t>woman</t>
+  </si>
+  <si>
     <t>swing</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>woman</t>
-  </si>
-  <si>
     <t>different</t>
   </si>
   <si>
@@ -534,15 +534,15 @@
     <t>work</t>
   </si>
   <si>
+    <t>wheelchair</t>
+  </si>
+  <si>
     <t>vehicle</t>
   </si>
   <si>
     <t>bunch</t>
   </si>
   <si>
-    <t>wheelchair</t>
-  </si>
-  <si>
     <t>handle</t>
   </si>
   <si>
@@ -624,12 +624,12 @@
     <t>homeless</t>
   </si>
   <si>
+    <t>dude</t>
+  </si>
+  <si>
     <t>ago</t>
   </si>
   <si>
-    <t>dude</t>
-  </si>
-  <si>
     <t>feel</t>
   </si>
   <si>
@@ -690,15 +690,15 @@
     <t>later</t>
   </si>
   <si>
+    <t>similar</t>
+  </si>
+  <si>
     <t>screech</t>
   </si>
   <si>
     <t>pigeon</t>
   </si>
   <si>
-    <t>similar</t>
-  </si>
-  <si>
     <t>ie</t>
   </si>
   <si>
@@ -750,6 +750,9 @@
     <t>squeeze</t>
   </si>
   <si>
+    <t>mentally</t>
+  </si>
+  <si>
     <t>stroller</t>
   </si>
   <si>
@@ -759,9 +762,6 @@
     <t>supervisor</t>
   </si>
   <si>
-    <t>mentally</t>
-  </si>
-  <si>
     <t>sense</t>
   </si>
   <si>
@@ -804,12 +804,12 @@
     <t>close</t>
   </si>
   <si>
+    <t>hundred</t>
+  </si>
+  <si>
     <t>yesterday</t>
   </si>
   <si>
-    <t>hundred</t>
-  </si>
-  <si>
     <t>blow</t>
   </si>
   <si>
@@ -843,27 +843,27 @@
     <t>hospital</t>
   </si>
   <si>
+    <t>refuse</t>
+  </si>
+  <si>
     <t>heavy</t>
   </si>
   <si>
-    <t>refuse</t>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>corner</t>
   </si>
   <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>response</t>
   </si>
   <si>
     <t>approach</t>
   </si>
   <si>
-    <t>response</t>
-  </si>
-  <si>
     <t>arrive</t>
   </si>
   <si>
@@ -888,24 +888,24 @@
     <t>operator</t>
   </si>
   <si>
+    <t>place</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>place</t>
-  </si>
-  <si>
     <t>chance</t>
   </si>
   <si>
     <t>totally</t>
   </si>
   <si>
+    <t>rule</t>
+  </si>
+  <si>
     <t>throw</t>
   </si>
   <si>
-    <t>rule</t>
-  </si>
-  <si>
     <t>signal</t>
   </si>
   <si>
@@ -1107,12 +1107,12 @@
     <t>deal</t>
   </si>
   <si>
+    <t>side</t>
+  </si>
+  <si>
     <t>often</t>
   </si>
   <si>
-    <t>side</t>
-  </si>
-  <si>
     <t>east</t>
   </si>
   <si>
@@ -1137,6 +1137,9 @@
     <t>chug</t>
   </si>
   <si>
+    <t>woo</t>
+  </si>
+  <si>
     <t>unlocked</t>
   </si>
   <si>
@@ -1152,9 +1155,6 @@
     <t>easy</t>
   </si>
   <si>
-    <t>woo</t>
-  </si>
-  <si>
     <t>sooooo</t>
   </si>
   <si>
@@ -1185,6 +1185,9 @@
     <t>flame</t>
   </si>
   <si>
+    <t>biological</t>
+  </si>
+  <si>
     <t>bunz</t>
   </si>
   <si>
@@ -1236,9 +1239,6 @@
     <t>blank</t>
   </si>
   <si>
-    <t>biological</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -1248,6 +1248,12 @@
     <t>cane</t>
   </si>
   <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>presume</t>
+  </si>
+  <si>
     <t>enough</t>
   </si>
   <si>
@@ -1257,21 +1263,18 @@
     <t>swinge</t>
   </si>
   <si>
+    <t>smack</t>
+  </si>
+  <si>
     <t>barrel</t>
   </si>
   <si>
-    <t>smack</t>
-  </si>
-  <si>
-    <t>rubber</t>
-  </si>
-  <si>
-    <t>presume</t>
-  </si>
-  <si>
     <t>pretty</t>
   </si>
   <si>
+    <t>trans</t>
+  </si>
+  <si>
     <t>upstairs</t>
   </si>
   <si>
@@ -1284,24 +1287,24 @@
     <t>dash</t>
   </si>
   <si>
+    <t>seem</t>
+  </si>
+  <si>
     <t>amazed</t>
   </si>
   <si>
-    <t>seem</t>
-  </si>
-  <si>
     <t>big</t>
   </si>
   <si>
+    <t>part</t>
+  </si>
+  <si>
     <t>armed</t>
   </si>
   <si>
     <t>apology</t>
   </si>
   <si>
-    <t>part</t>
-  </si>
-  <si>
     <t>runner</t>
   </si>
   <si>
@@ -1332,9 +1335,6 @@
     <t>cute</t>
   </si>
   <si>
-    <t>trans</t>
-  </si>
-  <si>
     <t>grateful</t>
   </si>
   <si>
@@ -1377,12 +1377,12 @@
     <t>pair</t>
   </si>
   <si>
+    <t>escalate</t>
+  </si>
+  <si>
     <t>breath</t>
   </si>
   <si>
-    <t>escalate</t>
-  </si>
-  <si>
     <t>cat</t>
   </si>
   <si>
@@ -1410,6 +1410,9 @@
     <t>halt</t>
   </si>
   <si>
+    <t>wing</t>
+  </si>
+  <si>
     <t>bubble</t>
   </si>
   <si>
@@ -1419,7 +1422,7 @@
     <t>sticttcstation</t>
   </si>
   <si>
-    <t>wing</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>corrupt</t>
@@ -1434,15 +1437,12 @@
     <t>meter</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>many</t>
   </si>
   <si>
     <t>concourse</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>stare</t>
   </si>
   <si>
@@ -1452,12 +1452,12 @@
     <t>backwards</t>
   </si>
   <si>
+    <t>occasion</t>
+  </si>
+  <si>
     <t>anytime</t>
   </si>
   <si>
-    <t>occasion</t>
-  </si>
-  <si>
     <t>violence</t>
   </si>
   <si>
@@ -1473,6 +1473,9 @@
     <t>picttcstation</t>
   </si>
   <si>
+    <t>outcome</t>
+  </si>
+  <si>
     <t>clothe</t>
   </si>
   <si>
@@ -1485,9 +1488,6 @@
     <t>warning</t>
   </si>
   <si>
-    <t>outcome</t>
-  </si>
-  <si>
     <t>lot</t>
   </si>
   <si>
@@ -1521,36 +1521,36 @@
     <t>trigger</t>
   </si>
   <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
     <t>advice</t>
   </si>
   <si>
-    <t>successful</t>
-  </si>
-  <si>
-    <t>shape</t>
+    <t>survive</t>
   </si>
   <si>
     <t>metre</t>
   </si>
   <si>
-    <t>survive</t>
-  </si>
-  <si>
     <t>bathroom</t>
   </si>
   <si>
     <t>mom</t>
   </si>
   <si>
+    <t>match</t>
+  </si>
+  <si>
     <t>dump</t>
   </si>
   <si>
     <t>button</t>
   </si>
   <si>
-    <t>match</t>
-  </si>
-  <si>
     <t>dad</t>
   </si>
   <si>
@@ -1569,21 +1569,24 @@
     <t>inside</t>
   </si>
   <si>
+    <t>natural</t>
+  </si>
+  <si>
     <t>scream</t>
   </si>
   <si>
     <t>backpack</t>
   </si>
   <si>
-    <t>natural</t>
-  </si>
-  <si>
     <t>advance</t>
   </si>
   <si>
     <t>movie</t>
   </si>
   <si>
+    <t>heat</t>
+  </si>
+  <si>
     <t>escalator</t>
   </si>
   <si>
@@ -1596,9 +1599,6 @@
     <t>sadly</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
     <t>practice</t>
   </si>
   <si>
@@ -1611,12 +1611,12 @@
     <t>confuse</t>
   </si>
   <si>
+    <t>angry</t>
+  </si>
+  <si>
     <t>lock</t>
   </si>
   <si>
-    <t>angry</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -1668,33 +1668,33 @@
     <t>yard</t>
   </si>
   <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
     <t>fly</t>
   </si>
   <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>logic</t>
+    <t>respect</t>
   </si>
   <si>
     <t>forever</t>
   </si>
   <si>
+    <t>disability</t>
+  </si>
+  <si>
     <t>god</t>
   </si>
   <si>
-    <t>disability</t>
+    <t>assault</t>
   </si>
   <si>
     <t>sad</t>
   </si>
   <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>assault</t>
-  </si>
-  <si>
     <t>reply</t>
   </si>
   <si>
@@ -1722,39 +1722,39 @@
     <t>press</t>
   </si>
   <si>
+    <t>left</t>
+  </si>
+  <si>
     <t>piss</t>
   </si>
   <si>
-    <t>left</t>
-  </si>
-  <si>
     <t>tourist</t>
   </si>
   <si>
     <t>opposite</t>
   </si>
   <si>
+    <t>ad</t>
+  </si>
+  <si>
     <t>trade</t>
   </si>
   <si>
-    <t>ad</t>
-  </si>
-  <si>
     <t>regularly</t>
   </si>
   <si>
     <t>method</t>
   </si>
   <si>
+    <t>release</t>
+  </si>
+  <si>
     <t>guarantee</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>release</t>
-  </si>
-  <si>
     <t>truly</t>
   </si>
   <si>
@@ -1779,46 +1779,49 @@
     <t>path</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
     <t>luck</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
+    <t>aware</t>
+  </si>
+  <si>
     <t>honest</t>
   </si>
   <si>
     <t>eye</t>
   </si>
   <si>
-    <t>aware</t>
-  </si>
-  <si>
     <t>random</t>
   </si>
   <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>immediately</t>
+  </si>
+  <si>
     <t>idiot</t>
   </si>
   <si>
-    <t>immediately</t>
-  </si>
-  <si>
     <t>hurt</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>wear</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>treat</t>
+    <t>straight</t>
   </si>
   <si>
     <t>third</t>
@@ -1827,9 +1830,6 @@
     <t>glad</t>
   </si>
   <si>
-    <t>straight</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
@@ -1848,6 +1848,9 @@
     <t>floor</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>reliable</t>
   </si>
   <si>
@@ -1857,18 +1860,15 @@
     <t>pack</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>garbage</t>
   </si>
   <si>
+    <t>specifically</t>
+  </si>
+  <si>
     <t>near</t>
   </si>
   <si>
-    <t>specifically</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -1920,24 +1920,24 @@
     <t>fight</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>cross</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>generally</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>generally</t>
+    <t>word</t>
   </si>
   <si>
     <t>everywhere</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
     <t>schedule</t>
   </si>
   <si>
@@ -1950,27 +1950,27 @@
     <t>fully</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>anyway</t>
+  </si>
+  <si>
     <t>regular</t>
   </si>
   <si>
-    <t>anyway</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>alternative</t>
   </si>
   <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
     <t>weekend</t>
   </si>
   <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>meet</t>
-  </si>
-  <si>
     <t>pm</t>
   </si>
   <si>
@@ -1980,10 +1980,13 @@
     <t>mostly</t>
   </si>
   <si>
+    <t>step</t>
+  </si>
+  <si>
     <t>blame</t>
   </si>
   <si>
-    <t>step</t>
+    <t>non</t>
   </si>
   <si>
     <t>green</t>
@@ -1992,9 +1995,6 @@
     <t>fire</t>
   </si>
   <si>
-    <t>non</t>
-  </si>
-  <si>
     <t>directly</t>
   </si>
   <si>
@@ -2022,27 +2022,27 @@
     <t>main</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>worker</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>honestly</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>child</t>
+  </si>
+  <si>
     <t>multiple</t>
   </si>
   <si>
-    <t>child</t>
-  </si>
-  <si>
     <t>wonder</t>
   </si>
   <si>
@@ -2070,18 +2070,18 @@
     <t>middle</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>rest</t>
   </si>
   <si>
-    <t>demand</t>
+    <t>actual</t>
   </si>
   <si>
     <t>past</t>
   </si>
   <si>
-    <t>actual</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
@@ -2121,42 +2121,42 @@
     <t>store</t>
   </si>
   <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
     <t>basically</t>
   </si>
   <si>
-    <t>mind</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>late</t>
-  </si>
-  <si>
     <t>usually</t>
   </si>
   <si>
+    <t>definitely</t>
+  </si>
+  <si>
     <t>ticket</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>definitely</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>rider</t>
   </si>
   <si>
+    <t>question</t>
+  </si>
+  <si>
     <t>future</t>
   </si>
   <si>
-    <t>question</t>
-  </si>
-  <si>
     <t>expect</t>
   </si>
   <si>
@@ -2175,48 +2175,48 @@
     <t>kid</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>experience</t>
+  </si>
+  <si>
     <t>benefit</t>
   </si>
   <si>
-    <t>experience</t>
-  </si>
-  <si>
     <t>everything</t>
   </si>
   <si>
     <t>week</t>
   </si>
   <si>
+    <t>believe</t>
+  </si>
+  <si>
     <t>require</t>
   </si>
   <si>
-    <t>believe</t>
-  </si>
-  <si>
     <t>especially</t>
   </si>
   <si>
+    <t>provide</t>
+  </si>
+  <si>
     <t>whole</t>
   </si>
   <si>
-    <t>provide</t>
+    <t>real</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>police</t>
   </si>
   <si>
@@ -2238,15 +2238,15 @@
     <t>park</t>
   </si>
   <si>
+    <t>life</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
     <t>option</t>
   </si>
   <si>
-    <t>life</t>
-  </si>
-  <si>
     <t>large</t>
   </si>
   <si>
@@ -2325,15 +2325,15 @@
     <t>http</t>
   </si>
   <si>
+    <t>various</t>
+  </si>
+  <si>
     <t>vuitton</t>
   </si>
   <si>
     <t>capsule</t>
   </si>
   <si>
-    <t>various</t>
-  </si>
-  <si>
     <t>cineplex</t>
   </si>
   <si>
@@ -2457,12 +2457,12 @@
     <t>wolfpack</t>
   </si>
   <si>
+    <t>clinton</t>
+  </si>
+  <si>
     <t>screen</t>
   </si>
   <si>
-    <t>clinton</t>
-  </si>
-  <si>
     <t>turkey</t>
   </si>
   <si>
@@ -2490,12 +2490,12 @@
     <t>oct</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>promotion</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>theatre</t>
   </si>
   <si>
@@ -2529,12 +2529,12 @@
     <t>exclude</t>
   </si>
   <si>
+    <t>image</t>
+  </si>
+  <si>
     <t>integration</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>meeting</t>
   </si>
   <si>
@@ -2562,6 +2562,9 @@
     <t>photo</t>
   </si>
   <si>
+    <t>utero</t>
+  </si>
+  <si>
     <t>totime</t>
   </si>
   <si>
@@ -2601,6 +2604,9 @@
     <t>cfffbbe</t>
   </si>
   <si>
+    <t>badass</t>
+  </si>
+  <si>
     <t>connect</t>
   </si>
   <si>
@@ -2610,9 +2616,6 @@
     <t>south</t>
   </si>
   <si>
-    <t>utero</t>
-  </si>
-  <si>
     <t>tfn</t>
   </si>
   <si>
@@ -2625,9 +2628,6 @@
     <t>bobby</t>
   </si>
   <si>
-    <t>badass</t>
-  </si>
-  <si>
     <t>top</t>
   </si>
   <si>
@@ -2745,21 +2745,21 @@
     <t>ghost</t>
   </si>
   <si>
+    <t>stadium</t>
+  </si>
+  <si>
     <t>carlaw</t>
   </si>
   <si>
-    <t>stadium</t>
+    <t>george</t>
+  </si>
+  <si>
+    <t>external</t>
   </si>
   <si>
     <t>leaf</t>
   </si>
   <si>
-    <t>george</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
     <t>confusion</t>
   </si>
   <si>
@@ -2826,12 +2826,12 @@
     <t>series</t>
   </si>
   <si>
+    <t>national</t>
+  </si>
+  <si>
     <t>monday</t>
   </si>
   <si>
-    <t>national</t>
-  </si>
-  <si>
     <t>steele</t>
   </si>
   <si>
@@ -2847,21 +2847,21 @@
     <t>central</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>subreddit</t>
+  </si>
+  <si>
     <t>casino</t>
   </si>
   <si>
-    <t>subreddit</t>
+    <t>display</t>
   </si>
   <si>
     <t>welcome</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
     <t>science</t>
   </si>
   <si>
@@ -2883,12 +2883,12 @@
     <t>campaign</t>
   </si>
   <si>
+    <t>downvote</t>
+  </si>
+  <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>downvote</t>
-  </si>
-  <si>
     <t>ca</t>
   </si>
   <si>
@@ -2910,24 +2910,24 @@
     <t>propose</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>sheppard</t>
   </si>
   <si>
+    <t>act</t>
+  </si>
+  <si>
     <t>available</t>
   </si>
   <si>
-    <t>act</t>
-  </si>
-  <si>
     <t>ridership</t>
   </si>
   <si>
@@ -2937,12 +2937,12 @@
     <t>information</t>
   </si>
   <si>
+    <t>remove</t>
+  </si>
+  <si>
     <t>must</t>
   </si>
   <si>
-    <t>remove</t>
-  </si>
-  <si>
     <t>highway</t>
   </si>
   <si>
@@ -2955,12 +2955,12 @@
     <t>rather</t>
   </si>
   <si>
+    <t>base</t>
+  </si>
+  <si>
     <t>design</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>canada</t>
   </si>
   <si>
@@ -3081,12 +3081,12 @@
     <t>reduce</t>
   </si>
   <si>
+    <t>improve</t>
+  </si>
+  <si>
     <t>far</t>
   </si>
   <si>
-    <t>improve</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -3135,12 +3135,12 @@
     <t>commercial</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>urban</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>serve</t>
   </si>
   <si>
@@ -3165,12 +3165,12 @@
     <t>affordable</t>
   </si>
   <si>
+    <t>term</t>
+  </si>
+  <si>
     <t>suburban</t>
   </si>
   <si>
-    <t>term</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
@@ -3249,12 +3249,12 @@
     <t>region</t>
   </si>
   <si>
+    <t>case</t>
+  </si>
+  <si>
     <t>huge</t>
   </si>
   <si>
-    <t>case</t>
-  </si>
-  <si>
     <t>luxury</t>
   </si>
   <si>
@@ -3324,12 +3324,12 @@
     <t>focus</t>
   </si>
   <si>
+    <t>storey</t>
+  </si>
+  <si>
     <t>absolutely</t>
   </si>
   <si>
-    <t>storey</t>
-  </si>
-  <si>
     <t>walkable</t>
   </si>
   <si>
@@ -3387,12 +3387,12 @@
     <t>ton</t>
   </si>
   <si>
+    <t>possible</t>
+  </si>
+  <si>
     <t>dedicated</t>
   </si>
   <si>
-    <t>possible</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
@@ -3402,12 +3402,12 @@
     <t>centric</t>
   </si>
   <si>
+    <t>europe</t>
+  </si>
+  <si>
     <t>neighborhood</t>
   </si>
   <si>
-    <t>europe</t>
-  </si>
-  <si>
     <t>yellowbelt</t>
   </si>
   <si>
@@ -3435,21 +3435,21 @@
     <t>comparison</t>
   </si>
   <si>
+    <t>self</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
-    <t>self</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
+    <t>planning</t>
+  </si>
+  <si>
     <t>regional</t>
   </si>
   <si>
-    <t>planning</t>
-  </si>
-  <si>
     <t>premium</t>
   </si>
   <si>
@@ -3477,12 +3477,12 @@
     <t>concern</t>
   </si>
   <si>
+    <t>developer</t>
+  </si>
+  <si>
     <t>shitty</t>
   </si>
   <si>
-    <t>developer</t>
-  </si>
-  <si>
     <t>double</t>
   </si>
   <si>
@@ -3498,15 +3498,15 @@
     <t>talttcstation</t>
   </si>
   <si>
+    <t>induce</t>
+  </si>
+  <si>
     <t>desirable</t>
   </si>
   <si>
     <t>impact</t>
   </si>
   <si>
-    <t>induce</t>
-  </si>
-  <si>
     <t>nightmare</t>
   </si>
   <si>
@@ -3549,48 +3549,48 @@
     <t>insane</t>
   </si>
   <si>
+    <t>mall</t>
+  </si>
+  <si>
     <t>cyclist</t>
   </si>
   <si>
-    <t>mall</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>alleviate</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>pollution</t>
   </si>
   <si>
     <t>max</t>
   </si>
   <si>
+    <t>create</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>create</t>
+    <t>rely</t>
   </si>
   <si>
     <t>sidewalk</t>
   </si>
   <si>
-    <t>rely</t>
-  </si>
-  <si>
     <t>improvement</t>
   </si>
   <si>
     <t>european</t>
   </si>
   <si>
+    <t>view</t>
+  </si>
+  <si>
     <t>sustainable</t>
   </si>
   <si>
-    <t>view</t>
-  </si>
-  <si>
     <t>industrial</t>
   </si>
   <si>
@@ -3609,24 +3609,24 @@
     <t>convert</t>
   </si>
   <si>
+    <t>bring</t>
+  </si>
+  <si>
     <t>business</t>
   </si>
   <si>
-    <t>bring</t>
+    <t>accommodate</t>
   </si>
   <si>
     <t>ottawa</t>
   </si>
   <si>
-    <t>accommodate</t>
+    <t>prioritize</t>
   </si>
   <si>
     <t>america</t>
   </si>
   <si>
-    <t>prioritize</t>
-  </si>
-  <si>
     <t>multi</t>
   </si>
   <si>
@@ -3645,15 +3645,15 @@
     <t>stay</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>bachelor</t>
   </si>
   <si>
     <t>spread</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>tottenham</t>
   </si>
   <si>
@@ -3672,12 +3672,12 @@
     <t>hwy</t>
   </si>
   <si>
+    <t>currently</t>
+  </si>
+  <si>
     <t>choke</t>
   </si>
   <si>
-    <t>currently</t>
-  </si>
-  <si>
     <t>etobicoke</t>
   </si>
   <si>
@@ -3699,12 +3699,12 @@
     <t>electrify</t>
   </si>
   <si>
+    <t>effective</t>
+  </si>
+  <si>
     <t>prefer</t>
   </si>
   <si>
-    <t>effective</t>
-  </si>
-  <si>
     <t>ideally</t>
   </si>
   <si>
@@ -3717,18 +3717,21 @@
     <t>overall</t>
   </si>
   <si>
+    <t>farther</t>
+  </si>
+  <si>
     <t>connection</t>
   </si>
   <si>
     <t>rapidly</t>
   </si>
   <si>
-    <t>farther</t>
-  </si>
-  <si>
     <t>factor</t>
   </si>
   <si>
+    <t>necessary</t>
+  </si>
+  <si>
     <t>shift</t>
   </si>
   <si>
@@ -3741,18 +3744,15 @@
     <t>corridor</t>
   </si>
   <si>
-    <t>necessary</t>
-  </si>
-  <si>
     <t>surface</t>
   </si>
   <si>
+    <t>mess</t>
+  </si>
+  <si>
     <t>carless</t>
   </si>
   <si>
-    <t>mess</t>
-  </si>
-  <si>
     <t>tall</t>
   </si>
   <si>
@@ -3789,21 +3789,21 @@
     <t>terrible</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>nobody</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>priority</t>
   </si>
   <si>
+    <t>depend</t>
+  </si>
+  <si>
     <t>windsor</t>
   </si>
   <si>
-    <t>depend</t>
-  </si>
-  <si>
     <t>relative</t>
   </si>
   <si>
@@ -3828,12 +3828,12 @@
     <t>invasion</t>
   </si>
   <si>
+    <t>decision</t>
+  </si>
+  <si>
     <t>replace</t>
   </si>
   <si>
-    <t>decision</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
@@ -3852,6 +3852,9 @@
     <t>particularly</t>
   </si>
   <si>
+    <t>exacerbate</t>
+  </si>
+  <si>
     <t>dig</t>
   </si>
   <si>
@@ -3864,9 +3867,6 @@
     <t>measure</t>
   </si>
   <si>
-    <t>exacerbate</t>
-  </si>
-  <si>
     <t>duplex</t>
   </si>
   <si>
@@ -3879,12 +3879,12 @@
     <t>planner</t>
   </si>
   <si>
+    <t>american</t>
+  </si>
+  <si>
     <t>rental</t>
   </si>
   <si>
-    <t>american</t>
-  </si>
-  <si>
     <t>dt</t>
   </si>
   <si>
@@ -3951,24 +3951,24 @@
     <t>household</t>
   </si>
   <si>
+    <t>study</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>study</t>
+    <t>value</t>
   </si>
   <si>
     <t>settle</t>
   </si>
   <si>
-    <t>value</t>
+    <t>solely</t>
   </si>
   <si>
     <t>fraction</t>
   </si>
   <si>
-    <t>solely</t>
-  </si>
-  <si>
     <t>forest</t>
   </si>
   <si>
@@ -4011,15 +4011,15 @@
     <t>strip</t>
   </si>
   <si>
+    <t>definition</t>
+  </si>
+  <si>
     <t>numerous</t>
   </si>
   <si>
     <t>earth</t>
   </si>
   <si>
-    <t>definition</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -4047,15 +4047,15 @@
     <t>exchange</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>ideal</t>
   </si>
   <si>
     <t>anyways</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>somewhat</t>
   </si>
   <si>
@@ -4095,6 +4095,12 @@
     <t>japan</t>
   </si>
   <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
     <t>hem</t>
   </si>
   <si>
@@ -4104,12 +4110,6 @@
     <t>cma</t>
   </si>
   <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>therefore</t>
-  </si>
-  <si>
     <t>advocate</t>
   </si>
   <si>
@@ -4122,12 +4122,12 @@
     <t>efficiency</t>
   </si>
   <si>
+    <t>avenue</t>
+  </si>
+  <si>
     <t>frequency</t>
   </si>
   <si>
-    <t>avenue</t>
-  </si>
-  <si>
     <t>generation</t>
   </si>
   <si>
@@ -4146,6 +4146,9 @@
     <t>friendly</t>
   </si>
   <si>
+    <t>basis</t>
+  </si>
+  <si>
     <t>reluctantly</t>
   </si>
   <si>
@@ -4158,9 +4161,6 @@
     <t>exurb</t>
   </si>
   <si>
-    <t>basis</t>
-  </si>
-  <si>
     <t>full</t>
   </si>
   <si>
@@ -4173,6 +4173,9 @@
     <t>environment</t>
   </si>
   <si>
+    <t>oppose</t>
+  </si>
+  <si>
     <t>victorian</t>
   </si>
   <si>
@@ -4185,30 +4188,27 @@
     <t>aesthetic</t>
   </si>
   <si>
-    <t>oppose</t>
-  </si>
-  <si>
     <t>wide</t>
   </si>
   <si>
     <t>miserably</t>
   </si>
   <si>
+    <t>human</t>
+  </si>
+  <si>
     <t>potential</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
     <t>airport</t>
   </si>
   <si>
-    <t>portion</t>
-  </si>
-  <si>
     <t>disproportionate</t>
   </si>
   <si>
-    <t>human</t>
-  </si>
-  <si>
     <t>thousand</t>
   </si>
   <si>
@@ -4275,6 +4275,9 @@
     <t>limit</t>
   </si>
   <si>
+    <t>storefront</t>
+  </si>
+  <si>
     <t>nimbys</t>
   </si>
   <si>
@@ -4287,9 +4290,6 @@
     <t>ultra</t>
   </si>
   <si>
-    <t>storefront</t>
-  </si>
-  <si>
     <t>reliant</t>
   </si>
   <si>
@@ -4305,12 +4305,12 @@
     <t>madness</t>
   </si>
   <si>
+    <t>figure</t>
+  </si>
+  <si>
     <t>reliably</t>
   </si>
   <si>
-    <t>figure</t>
-  </si>
-  <si>
     <t>mild</t>
   </si>
   <si>
@@ -4329,6 +4329,9 @@
     <t>suitable</t>
   </si>
   <si>
+    <t>conversion</t>
+  </si>
+  <si>
     <t>adelaide</t>
   </si>
   <si>
@@ -4347,6 +4350,9 @@
     <t>temporarily</t>
   </si>
   <si>
+    <t>subdivision</t>
+  </si>
+  <si>
     <t>sardine</t>
   </si>
   <si>
@@ -4356,15 +4362,9 @@
     <t>goddamn</t>
   </si>
   <si>
-    <t>conversion</t>
-  </si>
-  <si>
     <t>amsterdam</t>
   </si>
   <si>
-    <t>subdivision</t>
-  </si>
-  <si>
     <t>rezone</t>
   </si>
   <si>
@@ -4374,6 +4374,9 @@
     <t>continent</t>
   </si>
   <si>
+    <t>versa</t>
+  </si>
+  <si>
     <t>unsustainable</t>
   </si>
   <si>
@@ -4392,21 +4395,18 @@
     <t>fair</t>
   </si>
   <si>
-    <t>versa</t>
-  </si>
-  <si>
     <t>parkdale</t>
   </si>
   <si>
     <t>bottleneck</t>
   </si>
   <si>
+    <t>successfully</t>
+  </si>
+  <si>
     <t>economically</t>
   </si>
   <si>
-    <t>successfully</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -4416,13 +4416,16 @@
     <t>dependent</t>
   </si>
   <si>
+    <t>contrast</t>
+  </si>
+  <si>
     <t>existent</t>
   </si>
   <si>
     <t>vastly</t>
   </si>
   <si>
-    <t>contrast</t>
+    <t>distribute</t>
   </si>
   <si>
     <t>restrict</t>
@@ -4434,9 +4437,6 @@
     <t>endless</t>
   </si>
   <si>
-    <t>distribute</t>
-  </si>
-  <si>
     <t>adjacent</t>
   </si>
   <si>
@@ -4467,30 +4467,30 @@
     <t>semi</t>
   </si>
   <si>
+    <t>second</t>
+  </si>
+  <si>
     <t>connectivity</t>
   </si>
   <si>
-    <t>second</t>
-  </si>
-  <si>
     <t>headway</t>
   </si>
   <si>
     <t>attractive</t>
   </si>
   <si>
+    <t>necessity</t>
+  </si>
+  <si>
     <t>trap</t>
   </si>
   <si>
+    <t>lacttcstation</t>
+  </si>
+  <si>
     <t>zoning</t>
   </si>
   <si>
-    <t>necessity</t>
-  </si>
-  <si>
-    <t>lacttcstation</t>
-  </si>
-  <si>
     <t>exercise</t>
   </si>
   <si>
@@ -4500,6 +4500,9 @@
     <t>surely</t>
   </si>
   <si>
+    <t>stable</t>
+  </si>
+  <si>
     <t>relieve</t>
   </si>
   <si>
@@ -4512,9 +4515,6 @@
     <t>private</t>
   </si>
   <si>
-    <t>stable</t>
-  </si>
-  <si>
     <t>setup</t>
   </si>
   <si>
@@ -4527,6 +4527,9 @@
     <t>chaos</t>
   </si>
   <si>
+    <t>aim</t>
+  </si>
+  <si>
     <t>desire</t>
   </si>
   <si>
@@ -4536,36 +4539,33 @@
     <t>temporary</t>
   </si>
   <si>
-    <t>aim</t>
-  </si>
-  <si>
     <t>prime</t>
   </si>
   <si>
     <t>practical</t>
   </si>
   <si>
+    <t>circumstance</t>
+  </si>
+  <si>
     <t>lifestyle</t>
   </si>
   <si>
-    <t>circumstance</t>
-  </si>
-  <si>
     <t>journey</t>
   </si>
   <si>
     <t>reasonably</t>
   </si>
   <si>
+    <t>btw</t>
+  </si>
+  <si>
     <t>occasionally</t>
   </si>
   <si>
     <t>wise</t>
   </si>
   <si>
-    <t>btw</t>
-  </si>
-  <si>
     <t>retail</t>
   </si>
   <si>
@@ -4602,12 +4602,12 @@
     <t>alternate</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>jam</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>island</t>
   </si>
   <si>
@@ -4617,21 +4617,21 @@
     <t>largely</t>
   </si>
   <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>hardly</t>
   </si>
   <si>
     <t>partner</t>
   </si>
   <si>
-    <t>minor</t>
-  </si>
-  <si>
     <t>independent</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>constant</t>
   </si>
   <si>
@@ -4656,24 +4656,24 @@
     <t>employment</t>
   </si>
   <si>
+    <t>perspective</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
     <t>deep</t>
   </si>
   <si>
-    <t>perspective</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>delivery</t>
+    <t>recognize</t>
   </si>
   <si>
     <t>square</t>
   </si>
   <si>
-    <t>recognize</t>
-  </si>
-  <si>
     <t>rural</t>
   </si>
   <si>
@@ -4683,15 +4683,15 @@
     <t>usage</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>complex</t>
   </si>
   <si>
     <t>lake</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>kinda</t>
   </si>
   <si>
@@ -4713,28 +4713,31 @@
     <t>whenever</t>
   </si>
   <si>
+    <t>useful</t>
+  </si>
+  <si>
     <t>cycle</t>
   </si>
   <si>
-    <t>useful</t>
-  </si>
-  <si>
     <t>progress</t>
   </si>
   <si>
+    <t>suffer</t>
+  </si>
+  <si>
     <t>center</t>
   </si>
   <si>
-    <t>suffer</t>
-  </si>
-  <si>
     <t>funny</t>
   </si>
   <si>
+    <t>heavily</t>
+  </si>
+  <si>
     <t>appreciate</t>
   </si>
   <si>
-    <t>heavily</t>
+    <t>debate</t>
   </si>
   <si>
     <t>slightly</t>
@@ -4743,18 +4746,15 @@
     <t>convenience</t>
   </si>
   <si>
-    <t>debate</t>
-  </si>
-  <si>
     <t>obvious</t>
   </si>
   <si>
+    <t>function</t>
+  </si>
+  <si>
     <t>present</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
     <t>constantly</t>
   </si>
   <si>
@@ -4797,30 +4797,30 @@
     <t>expense</t>
   </si>
   <si>
+    <t>effect</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>effect</t>
+    <t>individual</t>
   </si>
   <si>
     <t>st</t>
   </si>
   <si>
-    <t>individual</t>
-  </si>
-  <si>
     <t>personally</t>
   </si>
   <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
     <t>direct</t>
   </si>
   <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
     <t>separate</t>
   </si>
   <si>
@@ -4836,12 +4836,12 @@
     <t>alone</t>
   </si>
   <si>
+    <t>additional</t>
+  </si>
+  <si>
     <t>perhaps</t>
   </si>
   <si>
-    <t>additional</t>
-  </si>
-  <si>
     <t>finally</t>
   </si>
   <si>
@@ -4854,12 +4854,12 @@
     <t>implement</t>
   </si>
   <si>
+    <t>clearly</t>
+  </si>
+  <si>
     <t>uber</t>
   </si>
   <si>
-    <t>clearly</t>
-  </si>
-  <si>
     <t>manage</t>
   </si>
   <si>
@@ -4875,6 +4875,9 @@
     <t>complete</t>
   </si>
   <si>
+    <t>law</t>
+  </si>
+  <si>
     <t>yokohama</t>
   </si>
   <si>
@@ -5067,9 +5070,6 @@
     <t>additionnal</t>
   </si>
   <si>
-    <t>law</t>
-  </si>
-  <si>
     <t>decide</t>
   </si>
   <si>
@@ -5226,6 +5226,9 @@
     <t>transition</t>
   </si>
   <si>
+    <t>windswept</t>
+  </si>
+  <si>
     <t>varie</t>
   </si>
   <si>
@@ -5268,6 +5271,9 @@
     <t>connecticut</t>
   </si>
   <si>
+    <t>cabbagetown</t>
+  </si>
+  <si>
     <t>boonie</t>
   </si>
   <si>
@@ -5277,9 +5283,6 @@
     <t>company</t>
   </si>
   <si>
-    <t>windswept</t>
-  </si>
-  <si>
     <t>triplexe</t>
   </si>
   <si>
@@ -5313,9 +5316,6 @@
     <t>cosburn</t>
   </si>
   <si>
-    <t>cabbagetown</t>
-  </si>
-  <si>
     <t>benz</t>
   </si>
   <si>
@@ -5418,6 +5418,9 @@
     <t>brooklyn</t>
   </si>
   <si>
+    <t>binary</t>
+  </si>
+  <si>
     <t>bdrm</t>
   </si>
   <si>
@@ -5445,6 +5448,9 @@
     <t>misconception</t>
   </si>
   <si>
+    <t>indicative</t>
+  </si>
+  <si>
     <t>finite</t>
   </si>
   <si>
@@ -5472,9 +5478,6 @@
     <t>intensity</t>
   </si>
   <si>
-    <t>indicative</t>
-  </si>
-  <si>
     <t>hectare</t>
   </si>
   <si>
@@ -5490,9 +5493,6 @@
     <t>chottcstation</t>
   </si>
   <si>
-    <t>binary</t>
-  </si>
-  <si>
     <t>baseline</t>
   </si>
   <si>
@@ -5577,6 +5577,9 @@
     <t>clarification</t>
   </si>
   <si>
+    <t>caveat</t>
+  </si>
+  <si>
     <t>towner</t>
   </si>
   <si>
@@ -5586,6 +5589,9 @@
     <t>exorbitant</t>
   </si>
   <si>
+    <t>dysfunctional</t>
+  </si>
+  <si>
     <t>doubtful</t>
   </si>
   <si>
@@ -5616,13 +5622,10 @@
     <t>incompatible</t>
   </si>
   <si>
-    <t>dysfunctional</t>
-  </si>
-  <si>
     <t>dumpster</t>
   </si>
   <si>
-    <t>caveat</t>
+    <t>designation</t>
   </si>
   <si>
     <t>affluent</t>
@@ -5640,9 +5643,6 @@
     <t>reign</t>
   </si>
   <si>
-    <t>designation</t>
-  </si>
-  <si>
     <t>demolition</t>
   </si>
   <si>
@@ -5661,6 +5661,9 @@
     <t>dependence</t>
   </si>
   <si>
+    <t>dentist</t>
+  </si>
+  <si>
     <t>bungalow</t>
   </si>
   <si>
@@ -5685,9 +5688,6 @@
     <t>deteriorate</t>
   </si>
   <si>
-    <t>dentist</t>
-  </si>
-  <si>
     <t>bodied</t>
   </si>
   <si>
@@ -5787,6 +5787,9 @@
     <t>overwhelm</t>
   </si>
   <si>
+    <t>genuine</t>
+  </si>
+  <si>
     <t>exhaust</t>
   </si>
   <si>
@@ -5811,27 +5814,27 @@
     <t>shortsighted</t>
   </si>
   <si>
+    <t>rampant</t>
+  </si>
+  <si>
+    <t>notable</t>
+  </si>
+  <si>
     <t>moan</t>
   </si>
   <si>
-    <t>genuine</t>
-  </si>
-  <si>
     <t>workforce</t>
   </si>
   <si>
     <t>usable</t>
   </si>
   <si>
-    <t>rampant</t>
+    <t>structural</t>
   </si>
   <si>
     <t>outweigh</t>
   </si>
   <si>
-    <t>notable</t>
-  </si>
-  <si>
     <t>ghetto</t>
   </si>
   <si>
@@ -5856,9 +5859,6 @@
     <t>ultimate</t>
   </si>
   <si>
-    <t>structural</t>
-  </si>
-  <si>
     <t>realm</t>
   </si>
   <si>
@@ -5964,6 +5964,9 @@
     <t>meantime</t>
   </si>
   <si>
+    <t>favor</t>
+  </si>
+  <si>
     <t>connected</t>
   </si>
   <si>
@@ -5976,10 +5979,13 @@
     <t>boggle</t>
   </si>
   <si>
+    <t>strictly</t>
+  </si>
+  <si>
     <t>inaccessible</t>
   </si>
   <si>
-    <t>favor</t>
+    <t>fundamental</t>
   </si>
   <si>
     <t>complicate</t>
@@ -5988,42 +5994,45 @@
     <t>cafe</t>
   </si>
   <si>
+    <t>bare</t>
+  </si>
+  <si>
     <t>bacttcstation</t>
   </si>
   <si>
     <t>unused</t>
   </si>
   <si>
+    <t>unrelated</t>
+  </si>
+  <si>
     <t>spit</t>
   </si>
   <si>
+    <t>mountain</t>
+  </si>
+  <si>
     <t>marginal</t>
   </si>
   <si>
-    <t>fundamental</t>
-  </si>
-  <si>
-    <t>bare</t>
-  </si>
-  <si>
-    <t>unrelated</t>
-  </si>
-  <si>
-    <t>strictly</t>
+    <t>comprehensive</t>
   </si>
   <si>
     <t>shanghai</t>
   </si>
   <si>
+    <t>reduced</t>
+  </si>
+  <si>
     <t>predictable</t>
   </si>
   <si>
-    <t>mountain</t>
-  </si>
-  <si>
     <t>ironically</t>
   </si>
   <si>
+    <t>historic</t>
+  </si>
+  <si>
     <t>depressing</t>
   </si>
   <si>
@@ -6033,7 +6042,7 @@
     <t>champion</t>
   </si>
   <si>
-    <t>reduced</t>
+    <t>whatsoever</t>
   </si>
   <si>
     <t>pose</t>
@@ -6042,18 +6051,15 @@
     <t>pic</t>
   </si>
   <si>
-    <t>historic</t>
-  </si>
-  <si>
-    <t>comprehensive</t>
-  </si>
-  <si>
     <t>civic</t>
   </si>
   <si>
     <t>bite</t>
   </si>
   <si>
+    <t>assign</t>
+  </si>
+  <si>
     <t>arterial</t>
   </si>
   <si>
@@ -6069,6 +6075,9 @@
     <t>redevelopment</t>
   </si>
   <si>
+    <t>mediocre</t>
+  </si>
+  <si>
     <t>insight</t>
   </si>
   <si>
@@ -6078,36 +6087,30 @@
     <t>butt</t>
   </si>
   <si>
-    <t>whatsoever</t>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>stressful</t>
   </si>
   <si>
     <t>portland</t>
   </si>
   <si>
-    <t>mediocre</t>
-  </si>
-  <si>
     <t>kw</t>
   </si>
   <si>
     <t>impressive</t>
   </si>
   <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>sustain</t>
-  </si>
-  <si>
-    <t>stressful</t>
-  </si>
-  <si>
     <t>slap</t>
   </si>
   <si>
     <t>severely</t>
   </si>
   <si>
+    <t>outline</t>
+  </si>
+  <si>
     <t>mini</t>
   </si>
   <si>
@@ -6123,7 +6126,7 @@
     <t>reading</t>
   </si>
   <si>
-    <t>outline</t>
+    <t>inherently</t>
   </si>
   <si>
     <t>infrequent</t>
@@ -6144,7 +6147,7 @@
     <t>percent</t>
   </si>
   <si>
-    <t>inherently</t>
+    <t>object</t>
   </si>
   <si>
     <t>equip</t>
@@ -6153,6 +6156,9 @@
     <t>deem</t>
   </si>
   <si>
+    <t>beneficial</t>
+  </si>
+  <si>
     <t>attraction</t>
   </si>
   <si>
@@ -6165,30 +6171,30 @@
     <t>residence</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>leak</t>
   </si>
   <si>
     <t>escape</t>
   </si>
   <si>
+    <t>difficulty</t>
+  </si>
+  <si>
     <t>dictate</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>beneficial</t>
-  </si>
-  <si>
     <t>tackle</t>
   </si>
   <si>
     <t>purely</t>
   </si>
   <si>
+    <t>bullet</t>
+  </si>
+  <si>
     <t>lawn</t>
   </si>
   <si>
@@ -6198,9 +6204,6 @@
     <t>foolish</t>
   </si>
   <si>
-    <t>bullet</t>
-  </si>
-  <si>
     <t>boston</t>
   </si>
   <si>
@@ -6219,9 +6222,6 @@
     <t>freight</t>
   </si>
   <si>
-    <t>difficulty</t>
-  </si>
-  <si>
     <t>crappy</t>
   </si>
   <si>
@@ -6231,6 +6231,9 @@
     <t>sum</t>
   </si>
   <si>
+    <t>repeatedly</t>
+  </si>
+  <si>
     <t>productive</t>
   </si>
   <si>
@@ -6240,7 +6243,7 @@
     <t>bone</t>
   </si>
   <si>
-    <t>repeatedly</t>
+    <t>performance</t>
   </si>
   <si>
     <t>eg</t>
@@ -6252,9 +6255,6 @@
     <t>task</t>
   </si>
   <si>
-    <t>performance</t>
-  </si>
-  <si>
     <t>shitshow</t>
   </si>
   <si>
@@ -6273,31 +6273,37 @@
     <t>distribution</t>
   </si>
   <si>
+    <t>score</t>
+  </si>
+  <si>
     <t>richmond</t>
   </si>
   <si>
+    <t>pander</t>
+  </si>
+  <si>
+    <t>mitigate</t>
+  </si>
+  <si>
     <t>communicate</t>
   </si>
   <si>
     <t>altogether</t>
   </si>
   <si>
+    <t>unreasonable</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
     <t>pace</t>
   </si>
   <si>
-    <t>mitigate</t>
-  </si>
-  <si>
     <t>junction</t>
   </si>
   <si>
-    <t>unreasonable</t>
-  </si>
-  <si>
-    <t>pander</t>
+    <t>unpopular</t>
   </si>
   <si>
     <t>opposition</t>
@@ -6318,15 +6324,9 @@
     <t>visitor</t>
   </si>
   <si>
-    <t>unpopular</t>
-  </si>
-  <si>
     <t>timing</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>headline</t>
   </si>
   <si>
@@ -6339,6 +6339,12 @@
     <t>realistically</t>
   </si>
   <si>
+    <t>cultural</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
     <t>broad</t>
   </si>
   <si>
@@ -6351,10 +6357,7 @@
     <t>edmonton</t>
   </si>
   <si>
-    <t>cultural</t>
-  </si>
-  <si>
-    <t>chinese</t>
+    <t>reserve</t>
   </si>
   <si>
     <t>mentality</t>
@@ -6372,13 +6375,16 @@
     <t>blogto</t>
   </si>
   <si>
-    <t>reserve</t>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>retrofit</t>
   </si>
   <si>
     <t>quit</t>
   </si>
   <si>
-    <t>availability</t>
+    <t>crush</t>
   </si>
   <si>
     <t>presence</t>
@@ -6390,13 +6396,10 @@
     <t>virtually</t>
   </si>
   <si>
-    <t>retrofit</t>
-  </si>
-  <si>
     <t>negotiate</t>
   </si>
   <si>
-    <t>crush</t>
+    <t>legitimate</t>
   </si>
   <si>
     <t>comfort</t>
@@ -6405,16 +6408,16 @@
     <t>weekly</t>
   </si>
   <si>
+    <t>stat</t>
+  </si>
+  <si>
     <t>handful</t>
   </si>
   <si>
-    <t>stat</t>
-  </si>
-  <si>
     <t>pleasant</t>
   </si>
   <si>
-    <t>legitimate</t>
+    <t>pathetic</t>
   </si>
   <si>
     <t>inconvenient</t>
@@ -6432,13 +6435,13 @@
     <t>curb</t>
   </si>
   <si>
+    <t>compromise</t>
+  </si>
+  <si>
     <t>pipe</t>
   </si>
   <si>
-    <t>pathetic</t>
-  </si>
-  <si>
-    <t>compromise</t>
+    <t>minimal</t>
   </si>
   <si>
     <t>durham</t>
@@ -6450,9 +6453,6 @@
     <t>asia</t>
   </si>
   <si>
-    <t>minimal</t>
-  </si>
-  <si>
     <t>reliability</t>
   </si>
   <si>
@@ -6468,12 +6468,18 @@
     <t>basement</t>
   </si>
   <si>
+    <t>worried</t>
+  </si>
+  <si>
     <t>van</t>
   </si>
   <si>
     <t>unfortunate</t>
   </si>
   <si>
+    <t>reflect</t>
+  </si>
+  <si>
     <t>navigate</t>
   </si>
   <si>
@@ -6483,10 +6489,10 @@
     <t>annoy</t>
   </si>
   <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>reflect</t>
+    <t>perform</t>
+  </si>
+  <si>
+    <t>bias</t>
   </si>
   <si>
     <t>washroom</t>
@@ -6498,6 +6504,9 @@
     <t>enormous</t>
   </si>
   <si>
+    <t>attract</t>
+  </si>
+  <si>
     <t>suit</t>
   </si>
   <si>
@@ -6507,12 +6516,6 @@
     <t>ongoing</t>
   </si>
   <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>attract</t>
-  </si>
-  <si>
     <t>asian</t>
   </si>
   <si>
@@ -6525,6 +6528,9 @@
     <t>valuable</t>
   </si>
   <si>
+    <t>drag</t>
+  </si>
+  <si>
     <t>achieve</t>
   </si>
   <si>
@@ -6546,12 +6552,6 @@
     <t>print</t>
   </si>
   <si>
-    <t>perform</t>
-  </si>
-  <si>
-    <t>drag</t>
-  </si>
-  <si>
     <t>calgary</t>
   </si>
   <si>
@@ -6561,6 +6561,9 @@
     <t>brt</t>
   </si>
   <si>
+    <t>minority</t>
+  </si>
+  <si>
     <t>wherever</t>
   </si>
   <si>
@@ -6591,30 +6594,27 @@
     <t>ppl</t>
   </si>
   <si>
+    <t>inform</t>
+  </si>
+  <si>
     <t>desperately</t>
   </si>
   <si>
     <t>consequence</t>
   </si>
   <si>
-    <t>minority</t>
-  </si>
-  <si>
-    <t>inform</t>
-  </si>
-  <si>
     <t>permanent</t>
   </si>
   <si>
     <t>lyft</t>
   </si>
   <si>
+    <t>unlikely</t>
+  </si>
+  <si>
     <t>maximum</t>
   </si>
   <si>
-    <t>unlikely</t>
-  </si>
-  <si>
     <t>suggestion</t>
   </si>
   <si>
@@ -6666,18 +6666,21 @@
     <t>beach</t>
   </si>
   <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>reduction</t>
+  </si>
+  <si>
     <t>badly</t>
   </si>
   <si>
+    <t>unique</t>
+  </si>
+  <si>
     <t>stationary</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>theory</t>
-  </si>
-  <si>
     <t>permit</t>
   </si>
   <si>
@@ -6687,9 +6690,6 @@
     <t>enable</t>
   </si>
   <si>
-    <t>reduction</t>
-  </si>
-  <si>
     <t>typical</t>
   </si>
   <si>
@@ -6708,15 +6708,18 @@
     <t>shame</t>
   </si>
   <si>
+    <t>decrease</t>
+  </si>
+  <si>
     <t>vision</t>
   </si>
   <si>
+    <t>pro</t>
+  </si>
+  <si>
     <t>rip</t>
   </si>
   <si>
-    <t>decrease</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -6726,45 +6729,42 @@
     <t>victim</t>
   </si>
   <si>
-    <t>pro</t>
-  </si>
-  <si>
     <t>gap</t>
   </si>
   <si>
+    <t>appropriate</t>
+  </si>
+  <si>
     <t>pcs</t>
   </si>
   <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>technically</t>
   </si>
   <si>
-    <t>equivalent</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>burn</t>
   </si>
   <si>
-    <t>appropriate</t>
-  </si>
-  <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>doctor</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
+    <t>previously</t>
+  </si>
+  <si>
     <t>hole</t>
   </si>
   <si>
-    <t>previously</t>
-  </si>
-  <si>
     <t>valid</t>
   </si>
   <si>
@@ -6774,48 +6774,48 @@
     <t>shoot</t>
   </si>
   <si>
+    <t>either</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>either</t>
-  </si>
-  <si>
     <t>bed</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
     <t>noise</t>
   </si>
   <si>
     <t>feed</t>
   </si>
   <si>
+    <t>discuss</t>
+  </si>
+  <si>
     <t>scene</t>
   </si>
   <si>
     <t>cab</t>
   </si>
   <si>
-    <t>discuss</t>
-  </si>
-  <si>
     <t>typically</t>
   </si>
   <si>
     <t>evening</t>
   </si>
   <si>
+    <t>activity</t>
+  </si>
+  <si>
     <t>kong</t>
   </si>
   <si>
     <t>hong</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>equipment</t>
   </si>
   <si>
@@ -6840,27 +6840,27 @@
     <t>taxi</t>
   </si>
   <si>
+    <t>anti</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>proposal</t>
   </si>
   <si>
     <t>lakeshore</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>mistake</t>
   </si>
   <si>
+    <t>significantly</t>
+  </si>
+  <si>
     <t>ownership</t>
   </si>
   <si>
-    <t>anti</t>
-  </si>
-  <si>
-    <t>significantly</t>
-  </si>
-  <si>
     <t>bridge</t>
   </si>
   <si>
@@ -6873,13 +6873,16 @@
     <t>challenge</t>
   </si>
   <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
     <t>modern</t>
   </si>
   <si>
-    <t>draw</t>
-  </si>
-  <si>
-    <t>court</t>
+    <t>physical</t>
   </si>
   <si>
     <t>page</t>
@@ -6888,19 +6891,19 @@
     <t>failure</t>
   </si>
   <si>
-    <t>physical</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
     <t>pilot</t>
   </si>
   <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>refer</t>
+    <t>fit</t>
   </si>
   <si>
     <t>strong</t>
@@ -6909,9 +6912,6 @@
     <t>somehow</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
@@ -6927,30 +6927,30 @@
     <t>effort</t>
   </si>
   <si>
+    <t>frequently</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
     <t>bother</t>
   </si>
   <si>
     <t>truck</t>
   </si>
   <si>
+    <t>smart</t>
+  </si>
+  <si>
     <t>management</t>
   </si>
   <si>
-    <t>frequently</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>smart</t>
+    <t>prove</t>
   </si>
   <si>
     <t>info</t>
   </si>
   <si>
-    <t>prove</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
@@ -6960,12 +6960,12 @@
     <t>recent</t>
   </si>
   <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>condition</t>
-  </si>
-  <si>
     <t>vancouver</t>
   </si>
   <si>
@@ -6984,27 +6984,27 @@
     <t>financial</t>
   </si>
   <si>
+    <t>willing</t>
+  </si>
+  <si>
     <t>carbon</t>
   </si>
   <si>
-    <t>willing</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>detail</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>industry</t>
   </si>
   <si>
     <t>accord</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>history</t>
   </si>
   <si>
@@ -7020,12 +7020,12 @@
     <t>affect</t>
   </si>
   <si>
+    <t>opinion</t>
+  </si>
+  <si>
     <t>record</t>
   </si>
   <si>
-    <t>opinion</t>
-  </si>
-  <si>
     <t>interest</t>
   </si>
   <si>
@@ -7038,12 +7038,12 @@
     <t>subsidize</t>
   </si>
   <si>
+    <t>carry</t>
+  </si>
+  <si>
     <t>datum</t>
   </si>
   <si>
-    <t>carry</t>
-  </si>
-  <si>
     <t>cash</t>
   </si>
   <si>
@@ -7134,12 +7134,12 @@
     <t>aah</t>
   </si>
   <si>
+    <t>transitive</t>
+  </si>
+  <si>
     <t>sunrise</t>
   </si>
   <si>
-    <t>transitive</t>
-  </si>
-  <si>
     <t>caesar</t>
   </si>
   <si>
@@ -7242,12 +7242,12 @@
     <t>spending</t>
   </si>
   <si>
+    <t>bill</t>
+  </si>
+  <si>
     <t>government</t>
   </si>
   <si>
-    <t>bill</t>
-  </si>
-  <si>
     <t>operation</t>
   </si>
   <si>
@@ -7293,12 +7293,12 @@
     <t>telecom</t>
   </si>
   <si>
+    <t>favourable</t>
+  </si>
+  <si>
     <t>manageable</t>
   </si>
   <si>
-    <t>favourable</t>
-  </si>
-  <si>
     <t>condescend</t>
   </si>
   <si>
@@ -7332,45 +7332,45 @@
     <t>principal</t>
   </si>
   <si>
+    <t>ideology</t>
+  </si>
+  <si>
     <t>winner</t>
   </si>
   <si>
-    <t>ideology</t>
-  </si>
-  <si>
     <t>loser</t>
   </si>
   <si>
+    <t>undermine</t>
+  </si>
+  <si>
     <t>ought</t>
   </si>
   <si>
     <t>ironic</t>
   </si>
   <si>
-    <t>undermine</t>
+    <t>pursue</t>
   </si>
   <si>
     <t>explicitly</t>
   </si>
   <si>
-    <t>pursue</t>
-  </si>
-  <si>
     <t>relation</t>
   </si>
   <si>
     <t>capita</t>
   </si>
   <si>
+    <t>behavior</t>
+  </si>
+  <si>
     <t>singapore</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>behavior</t>
-  </si>
-  <si>
     <t>rank</t>
   </si>
   <si>
@@ -7380,16 +7380,16 @@
     <t>clarify</t>
   </si>
   <si>
+    <t>ratio</t>
+  </si>
+  <si>
     <t>borrow</t>
   </si>
   <si>
-    <t>ratio</t>
+    <t>highlight</t>
   </si>
   <si>
     <t>abandon</t>
-  </si>
-  <si>
-    <t>highlight</t>
   </si>
   <si>
     <t>element</t>
@@ -8283,7 +8283,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.302</v>
+        <v>0.301</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -8327,7 +8327,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -8338,7 +8338,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -8547,7 +8547,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -8558,7 +8558,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -8635,7 +8635,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
@@ -9140,7 +9140,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.229</v>
+        <v>0.228</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
@@ -9426,7 +9426,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.083</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C30" t="s">
         <v>101</v>
@@ -9470,7 +9470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
@@ -9789,7 +9789,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="C63" t="s">
         <v>133</v>
@@ -10438,7 +10438,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="C122" t="s">
         <v>190</v>
@@ -11582,7 +11582,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="C226" t="s">
         <v>293</v>
@@ -12762,7 +12762,7 @@
         <v>0.016</v>
       </c>
       <c r="C333" t="s">
-        <v>65</v>
+        <v>399</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -12773,7 +12773,7 @@
         <v>0.016</v>
       </c>
       <c r="C334" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -12784,7 +12784,7 @@
         <v>0.016</v>
       </c>
       <c r="C335" t="s">
-        <v>399</v>
+        <v>66</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -13144,7 +13144,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="C368" t="s">
         <v>431</v>
@@ -13507,7 +13507,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="C401" t="s">
         <v>464</v>
@@ -15094,7 +15094,7 @@
         <v>0.011</v>
       </c>
       <c r="C545" t="s">
-        <v>608</v>
+        <v>42</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -15105,7 +15105,7 @@
         <v>0.011</v>
       </c>
       <c r="C546" t="s">
-        <v>609</v>
+        <v>43</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -15116,7 +15116,7 @@
         <v>0.011</v>
       </c>
       <c r="C547" t="s">
-        <v>42</v>
+        <v>608</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -15127,7 +15127,7 @@
         <v>0.011</v>
       </c>
       <c r="C548" t="s">
-        <v>43</v>
+        <v>609</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -15182,7 +15182,7 @@
         <v>0.011</v>
       </c>
       <c r="C553" t="s">
-        <v>44</v>
+        <v>614</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -15193,7 +15193,7 @@
         <v>0.011</v>
       </c>
       <c r="C554" t="s">
-        <v>614</v>
+        <v>44</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -15982,7 +15982,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C626" t="s">
         <v>686</v>
@@ -16271,7 +16271,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C652" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -16499,7 +16499,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="C673" t="s">
         <v>731</v>
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5639999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -16982,7 +16982,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="C13" t="s">
         <v>761</v>
@@ -17081,7 +17081,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.067</v>
+        <v>0.066</v>
       </c>
       <c r="C22" t="s">
         <v>770</v>
@@ -17425,7 +17425,7 @@
         <v>0.037</v>
       </c>
       <c r="C53" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -17609,7 +17609,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="C70" t="s">
         <v>810</v>
@@ -17755,7 +17755,7 @@
         <v>0.026</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -18041,7 +18041,7 @@
         <v>0.021</v>
       </c>
       <c r="C109" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -18250,7 +18250,7 @@
         <v>0.018</v>
       </c>
       <c r="C128" t="s">
-        <v>111</v>
+        <v>859</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -18258,10 +18258,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="C129" t="s">
-        <v>676</v>
+        <v>860</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -18269,10 +18269,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="C130" t="s">
-        <v>859</v>
+        <v>676</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -18280,10 +18280,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="C131" t="s">
-        <v>860</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -18382,7 +18382,7 @@
         <v>0.017</v>
       </c>
       <c r="C140" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -18621,7 +18621,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="C162" t="s">
         <v>887</v>
@@ -18632,7 +18632,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="C163" t="s">
         <v>888</v>
@@ -18643,7 +18643,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="C164" t="s">
         <v>889</v>
@@ -18654,7 +18654,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="C165" t="s">
         <v>890</v>
@@ -19369,7 +19369,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="C230" t="s">
         <v>946</v>
@@ -19394,7 +19394,7 @@
         <v>0.01</v>
       </c>
       <c r="C232" t="s">
-        <v>256</v>
+        <v>948</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -19405,7 +19405,7 @@
         <v>0.01</v>
       </c>
       <c r="C233" t="s">
-        <v>948</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -19548,7 +19548,7 @@
         <v>0.01</v>
       </c>
       <c r="C246" t="s">
-        <v>960</v>
+        <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -19559,7 +19559,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C247" t="s">
-        <v>166</v>
+        <v>960</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -19702,7 +19702,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C260" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -19765,7 +19765,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="C266" t="s">
         <v>973</v>
@@ -19801,7 +19801,7 @@
         <v>0.008</v>
       </c>
       <c r="C269" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -19834,7 +19834,7 @@
         <v>0.008</v>
       </c>
       <c r="C272" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -19856,7 +19856,7 @@
         <v>0.008</v>
       </c>
       <c r="C274" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -19955,7 +19955,7 @@
         <v>0.007</v>
       </c>
       <c r="C283" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -19988,7 +19988,7 @@
         <v>0.007</v>
       </c>
       <c r="C286" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -20054,7 +20054,7 @@
         <v>0.006</v>
       </c>
       <c r="C292" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -20383,7 +20383,7 @@
         <v>0.098</v>
       </c>
       <c r="C25" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -20413,7 +20413,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="C28" t="s">
         <v>996</v>
@@ -20438,7 +20438,7 @@
         <v>0.083</v>
       </c>
       <c r="C30" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -20490,7 +20490,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="C35" t="s">
         <v>999</v>
@@ -20570,7 +20570,7 @@
         <v>0.064</v>
       </c>
       <c r="C42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -20625,7 +20625,7 @@
         <v>0.059</v>
       </c>
       <c r="C47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -20658,7 +20658,7 @@
         <v>0.058</v>
       </c>
       <c r="C50" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -20677,10 +20677,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
       <c r="C52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -20834,7 +20834,7 @@
         <v>0.047</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -20845,7 +20845,7 @@
         <v>0.047</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -20864,7 +20864,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="C69" t="s">
         <v>645</v>
@@ -20933,7 +20933,7 @@
         <v>0.042</v>
       </c>
       <c r="C75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -21021,7 +21021,7 @@
         <v>0.04</v>
       </c>
       <c r="C83" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -21084,7 +21084,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="C89" t="s">
         <v>175</v>
@@ -21142,7 +21142,7 @@
         <v>0.036</v>
       </c>
       <c r="C94" t="s">
-        <v>1027</v>
+        <v>829</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -21153,7 +21153,7 @@
         <v>0.036</v>
       </c>
       <c r="C95" t="s">
-        <v>829</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -21329,7 +21329,7 @@
         <v>0.033</v>
       </c>
       <c r="C111" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -21351,7 +21351,7 @@
         <v>0.033</v>
       </c>
       <c r="C113" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -21362,7 +21362,7 @@
         <v>0.033</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -21637,7 +21637,7 @@
         <v>0.029</v>
       </c>
       <c r="C139" t="s">
-        <v>298</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -21648,7 +21648,7 @@
         <v>0.029</v>
       </c>
       <c r="C140" t="s">
-        <v>1047</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -21714,7 +21714,7 @@
         <v>0.028</v>
       </c>
       <c r="C146" t="s">
-        <v>918</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -21725,7 +21725,7 @@
         <v>0.028</v>
       </c>
       <c r="C147" t="s">
-        <v>341</v>
+        <v>918</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -21813,7 +21813,7 @@
         <v>0.026</v>
       </c>
       <c r="C155" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -21857,7 +21857,7 @@
         <v>0.026</v>
       </c>
       <c r="C159" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -21879,7 +21879,7 @@
         <v>0.026</v>
       </c>
       <c r="C161" t="s">
-        <v>112</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -21890,7 +21890,7 @@
         <v>0.026</v>
       </c>
       <c r="C162" t="s">
-        <v>1058</v>
+        <v>112</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -21923,7 +21923,7 @@
         <v>0.025</v>
       </c>
       <c r="C165" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -22008,7 +22008,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="C173" t="s">
         <v>1063</v>
@@ -22088,7 +22088,7 @@
         <v>0.023</v>
       </c>
       <c r="C180" t="s">
-        <v>1066</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -22099,7 +22099,7 @@
         <v>0.023</v>
       </c>
       <c r="C181" t="s">
-        <v>724</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -22242,7 +22242,7 @@
         <v>0.021</v>
       </c>
       <c r="C194" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -22308,7 +22308,7 @@
         <v>0.021</v>
       </c>
       <c r="C200" t="s">
-        <v>116</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -22319,7 +22319,7 @@
         <v>0.021</v>
       </c>
       <c r="C201" t="s">
-        <v>1075</v>
+        <v>116</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -22517,7 +22517,7 @@
         <v>0.02</v>
       </c>
       <c r="C219" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -22594,7 +22594,7 @@
         <v>0.019</v>
       </c>
       <c r="C226" t="s">
-        <v>665</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -22605,7 +22605,7 @@
         <v>0.019</v>
       </c>
       <c r="C227" t="s">
-        <v>1095</v>
+        <v>665</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -22649,7 +22649,7 @@
         <v>0.018</v>
       </c>
       <c r="C231" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -22737,7 +22737,7 @@
         <v>0.018</v>
       </c>
       <c r="C239" t="s">
-        <v>1102</v>
+        <v>695</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -22748,7 +22748,7 @@
         <v>0.018</v>
       </c>
       <c r="C240" t="s">
-        <v>695</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -22836,7 +22836,7 @@
         <v>0.017</v>
       </c>
       <c r="C248" t="s">
-        <v>1107</v>
+        <v>384</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -22847,7 +22847,7 @@
         <v>0.017</v>
       </c>
       <c r="C249" t="s">
-        <v>384</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -22858,7 +22858,7 @@
         <v>0.017</v>
       </c>
       <c r="C250" t="s">
-        <v>1108</v>
+        <v>421</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -22869,7 +22869,7 @@
         <v>0.017</v>
       </c>
       <c r="C251" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -22880,7 +22880,7 @@
         <v>0.017</v>
       </c>
       <c r="C252" t="s">
-        <v>421</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -23001,7 +23001,7 @@
         <v>0.016</v>
       </c>
       <c r="C263" t="s">
-        <v>1117</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -23012,7 +23012,7 @@
         <v>0.016</v>
       </c>
       <c r="C264" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -23023,7 +23023,7 @@
         <v>0.016</v>
       </c>
       <c r="C265" t="s">
-        <v>635</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -23078,7 +23078,7 @@
         <v>0.016</v>
       </c>
       <c r="C270" t="s">
-        <v>842</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -23089,7 +23089,7 @@
         <v>0.016</v>
       </c>
       <c r="C271" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -23100,7 +23100,7 @@
         <v>0.016</v>
       </c>
       <c r="C272" t="s">
-        <v>1124</v>
+        <v>842</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -23232,7 +23232,7 @@
         <v>0.015</v>
       </c>
       <c r="C284" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -23309,7 +23309,7 @@
         <v>0.015</v>
       </c>
       <c r="C291" t="s">
-        <v>801</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -23320,7 +23320,7 @@
         <v>0.015</v>
       </c>
       <c r="C292" t="s">
-        <v>1137</v>
+        <v>801</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -23364,7 +23364,7 @@
         <v>0.014</v>
       </c>
       <c r="C296" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -23397,7 +23397,7 @@
         <v>0.014</v>
       </c>
       <c r="C299" t="s">
-        <v>1141</v>
+        <v>613</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -23408,7 +23408,7 @@
         <v>0.014</v>
       </c>
       <c r="C300" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -23419,7 +23419,7 @@
         <v>0.014</v>
       </c>
       <c r="C301" t="s">
-        <v>614</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -23441,7 +23441,7 @@
         <v>0.014</v>
       </c>
       <c r="C303" t="s">
-        <v>1144</v>
+        <v>738</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -23452,7 +23452,7 @@
         <v>0.014</v>
       </c>
       <c r="C304" t="s">
-        <v>740</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -23507,7 +23507,7 @@
         <v>0.014</v>
       </c>
       <c r="C309" t="s">
-        <v>1149</v>
+        <v>702</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -23518,7 +23518,7 @@
         <v>0.014</v>
       </c>
       <c r="C310" t="s">
-        <v>701</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -23606,7 +23606,7 @@
         <v>0.014</v>
       </c>
       <c r="C318" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -23727,7 +23727,7 @@
         <v>0.013</v>
       </c>
       <c r="C329" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -23903,7 +23903,7 @@
         <v>0.013</v>
       </c>
       <c r="C345" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -23980,7 +23980,7 @@
         <v>0.012</v>
       </c>
       <c r="C352" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -24013,7 +24013,7 @@
         <v>0.012</v>
       </c>
       <c r="C355" t="s">
-        <v>618</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -24024,7 +24024,7 @@
         <v>0.012</v>
       </c>
       <c r="C356" t="s">
-        <v>1182</v>
+        <v>704</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -24035,7 +24035,7 @@
         <v>0.012</v>
       </c>
       <c r="C357" t="s">
-        <v>706</v>
+        <v>618</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -24090,7 +24090,7 @@
         <v>0.012</v>
       </c>
       <c r="C362" t="s">
-        <v>1186</v>
+        <v>710</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -24101,7 +24101,7 @@
         <v>0.012</v>
       </c>
       <c r="C363" t="s">
-        <v>709</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -24167,7 +24167,7 @@
         <v>0.012</v>
       </c>
       <c r="C369" t="s">
-        <v>1191</v>
+        <v>715</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -24178,7 +24178,7 @@
         <v>0.012</v>
       </c>
       <c r="C370" t="s">
-        <v>715</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -24200,7 +24200,7 @@
         <v>0.012</v>
       </c>
       <c r="C372" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -24222,7 +24222,7 @@
         <v>0.012</v>
       </c>
       <c r="C374" t="s">
-        <v>110</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -24233,7 +24233,7 @@
         <v>0.012</v>
       </c>
       <c r="C375" t="s">
-        <v>1194</v>
+        <v>110</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -24266,7 +24266,7 @@
         <v>0.012</v>
       </c>
       <c r="C378" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -24288,7 +24288,7 @@
         <v>0.012</v>
       </c>
       <c r="C380" t="s">
-        <v>236</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -24299,7 +24299,7 @@
         <v>0.012</v>
       </c>
       <c r="C381" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -24310,7 +24310,7 @@
         <v>0.012</v>
       </c>
       <c r="C382" t="s">
-        <v>1198</v>
+        <v>123</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -24321,7 +24321,7 @@
         <v>0.012</v>
       </c>
       <c r="C383" t="s">
-        <v>363</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -24332,7 +24332,7 @@
         <v>0.012</v>
       </c>
       <c r="C384" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -24343,7 +24343,7 @@
         <v>0.012</v>
       </c>
       <c r="C385" t="s">
-        <v>1200</v>
+        <v>363</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -24552,7 +24552,7 @@
         <v>0.011</v>
       </c>
       <c r="C404" t="s">
-        <v>1215</v>
+        <v>862</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -24563,7 +24563,7 @@
         <v>0.011</v>
       </c>
       <c r="C405" t="s">
-        <v>860</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -24728,7 +24728,7 @@
         <v>0.01</v>
       </c>
       <c r="C420" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -24860,7 +24860,7 @@
         <v>0.01</v>
       </c>
       <c r="C432" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -24992,7 +24992,7 @@
         <v>0.01</v>
       </c>
       <c r="C444" t="s">
-        <v>630</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -25003,7 +25003,7 @@
         <v>0.01</v>
       </c>
       <c r="C445" t="s">
-        <v>1247</v>
+        <v>630</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -25102,7 +25102,7 @@
         <v>0.01</v>
       </c>
       <c r="C454" t="s">
-        <v>729</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -25113,7 +25113,7 @@
         <v>0.01</v>
       </c>
       <c r="C455" t="s">
-        <v>1253</v>
+        <v>730</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -25135,7 +25135,7 @@
         <v>0.01</v>
       </c>
       <c r="C457" t="s">
-        <v>48</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -25146,7 +25146,7 @@
         <v>0.01</v>
       </c>
       <c r="C458" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -25157,7 +25157,7 @@
         <v>0.01</v>
       </c>
       <c r="C459" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -25168,7 +25168,7 @@
         <v>0.01</v>
       </c>
       <c r="C460" t="s">
-        <v>1256</v>
+        <v>106</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -25223,7 +25223,7 @@
         <v>0.01</v>
       </c>
       <c r="C465" t="s">
-        <v>1261</v>
+        <v>654</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -25234,7 +25234,7 @@
         <v>0.01</v>
       </c>
       <c r="C466" t="s">
-        <v>656</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -25245,7 +25245,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C467" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -25410,7 +25410,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C482" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -25531,7 +25531,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C493" t="s">
-        <v>868</v>
+        <v>700</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -25542,7 +25542,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C494" t="s">
-        <v>700</v>
+        <v>868</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -25575,7 +25575,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C497" t="s">
-        <v>1277</v>
+        <v>573</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -25586,7 +25586,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C498" t="s">
-        <v>573</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -25619,7 +25619,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C501" t="s">
-        <v>708</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -25630,7 +25630,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C502" t="s">
-        <v>1280</v>
+        <v>708</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -25674,7 +25674,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C506" t="s">
-        <v>351</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -25685,7 +25685,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C507" t="s">
-        <v>1283</v>
+        <v>351</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -25696,7 +25696,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C508" t="s">
-        <v>1284</v>
+        <v>711</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -25707,7 +25707,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C509" t="s">
-        <v>711</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -25806,7 +25806,7 @@
         <v>0.008</v>
       </c>
       <c r="C518" t="s">
-        <v>1292</v>
+        <v>977</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -25817,7 +25817,7 @@
         <v>0.008</v>
       </c>
       <c r="C519" t="s">
-        <v>978</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -25828,7 +25828,7 @@
         <v>0.008</v>
       </c>
       <c r="C520" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -25872,7 +25872,7 @@
         <v>0.008</v>
       </c>
       <c r="C524" t="s">
-        <v>278</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -25883,7 +25883,7 @@
         <v>0.008</v>
       </c>
       <c r="C525" t="s">
-        <v>1296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -25916,7 +25916,7 @@
         <v>0.008</v>
       </c>
       <c r="C528" t="s">
-        <v>15</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -25927,7 +25927,7 @@
         <v>0.008</v>
       </c>
       <c r="C529" t="s">
-        <v>1299</v>
+        <v>15</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -26147,7 +26147,7 @@
         <v>0.008</v>
       </c>
       <c r="C549" t="s">
-        <v>254</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -26158,7 +26158,7 @@
         <v>0.008</v>
       </c>
       <c r="C550" t="s">
-        <v>654</v>
+        <v>254</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -26169,7 +26169,7 @@
         <v>0.008</v>
       </c>
       <c r="C551" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -26180,7 +26180,7 @@
         <v>0.008</v>
       </c>
       <c r="C552" t="s">
-        <v>926</v>
+        <v>657</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -26191,7 +26191,7 @@
         <v>0.008</v>
       </c>
       <c r="C553" t="s">
-        <v>1314</v>
+        <v>926</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -26202,7 +26202,7 @@
         <v>0.008</v>
       </c>
       <c r="C554" t="s">
-        <v>1315</v>
+        <v>663</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -26213,7 +26213,7 @@
         <v>0.008</v>
       </c>
       <c r="C555" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -26224,7 +26224,7 @@
         <v>0.008</v>
       </c>
       <c r="C556" t="s">
-        <v>663</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -26257,7 +26257,7 @@
         <v>0.008</v>
       </c>
       <c r="C559" t="s">
-        <v>1319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -26268,7 +26268,7 @@
         <v>0.008</v>
       </c>
       <c r="C560" t="s">
-        <v>301</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -26400,7 +26400,7 @@
         <v>0.007</v>
       </c>
       <c r="C572" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -26455,7 +26455,7 @@
         <v>0.007</v>
       </c>
       <c r="C577" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -26466,7 +26466,7 @@
         <v>0.007</v>
       </c>
       <c r="C578" t="s">
-        <v>686</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -26477,7 +26477,7 @@
         <v>0.007</v>
       </c>
       <c r="C579" t="s">
-        <v>1333</v>
+        <v>686</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -26499,7 +26499,7 @@
         <v>0.007</v>
       </c>
       <c r="C581" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -26510,7 +26510,7 @@
         <v>0.007</v>
       </c>
       <c r="C582" t="s">
-        <v>1335</v>
+        <v>130</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -26521,7 +26521,7 @@
         <v>0.007</v>
       </c>
       <c r="C583" t="s">
-        <v>130</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -26532,7 +26532,7 @@
         <v>0.007</v>
       </c>
       <c r="C584" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -26554,7 +26554,7 @@
         <v>0.007</v>
       </c>
       <c r="C586" t="s">
-        <v>1336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -26565,7 +26565,7 @@
         <v>0.007</v>
       </c>
       <c r="C587" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -26576,7 +26576,7 @@
         <v>0.007</v>
       </c>
       <c r="C588" t="s">
-        <v>90</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -26587,7 +26587,7 @@
         <v>0.007</v>
       </c>
       <c r="C589" t="s">
-        <v>325</v>
+        <v>90</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -26598,7 +26598,7 @@
         <v>0.007</v>
       </c>
       <c r="C590" t="s">
-        <v>697</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -26609,7 +26609,7 @@
         <v>0.007</v>
       </c>
       <c r="C591" t="s">
-        <v>1338</v>
+        <v>697</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -27060,7 +27060,7 @@
         <v>0.007</v>
       </c>
       <c r="C632" t="s">
-        <v>196</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -27071,7 +27071,7 @@
         <v>0.007</v>
       </c>
       <c r="C633" t="s">
-        <v>1374</v>
+        <v>196</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -27302,7 +27302,7 @@
         <v>0.006</v>
       </c>
       <c r="C654" t="s">
-        <v>607</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -27313,7 +27313,7 @@
         <v>0.006</v>
       </c>
       <c r="C655" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -27324,7 +27324,7 @@
         <v>0.006</v>
       </c>
       <c r="C656" t="s">
-        <v>1393</v>
+        <v>607</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -27357,7 +27357,7 @@
         <v>0.006</v>
       </c>
       <c r="C659" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -27401,7 +27401,7 @@
         <v>0.006</v>
       </c>
       <c r="C663" t="s">
-        <v>1399</v>
+        <v>620</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -27412,7 +27412,7 @@
         <v>0.006</v>
       </c>
       <c r="C664" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -27423,7 +27423,7 @@
         <v>0.006</v>
       </c>
       <c r="C665" t="s">
-        <v>620</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -27445,7 +27445,7 @@
         <v>0.006</v>
       </c>
       <c r="C667" t="s">
-        <v>286</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -27456,7 +27456,7 @@
         <v>0.006</v>
       </c>
       <c r="C668" t="s">
-        <v>1402</v>
+        <v>286</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -27478,7 +27478,7 @@
         <v>0.006</v>
       </c>
       <c r="C670" t="s">
-        <v>1403</v>
+        <v>66</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -27489,7 +27489,7 @@
         <v>0.006</v>
       </c>
       <c r="C671" t="s">
-        <v>66</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -27577,7 +27577,7 @@
         <v>0.006</v>
       </c>
       <c r="C679" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -27709,7 +27709,7 @@
         <v>0.006</v>
       </c>
       <c r="C691" t="s">
-        <v>1421</v>
+        <v>295</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -27720,7 +27720,7 @@
         <v>0.006</v>
       </c>
       <c r="C692" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -27731,7 +27731,7 @@
         <v>0.006</v>
       </c>
       <c r="C693" t="s">
-        <v>295</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -27907,7 +27907,7 @@
         <v>0.006</v>
       </c>
       <c r="C709" t="s">
-        <v>302</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -27918,7 +27918,7 @@
         <v>0.006</v>
       </c>
       <c r="C710" t="s">
-        <v>1432</v>
+        <v>302</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -27962,7 +27962,7 @@
         <v>0.006</v>
       </c>
       <c r="C714" t="s">
-        <v>669</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -27973,7 +27973,7 @@
         <v>0.006</v>
       </c>
       <c r="C715" t="s">
-        <v>1436</v>
+        <v>669</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -28171,7 +28171,7 @@
         <v>0.005</v>
       </c>
       <c r="C733" t="s">
-        <v>682</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -28182,7 +28182,7 @@
         <v>0.005</v>
       </c>
       <c r="C734" t="s">
-        <v>1454</v>
+        <v>683</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -28325,7 +28325,7 @@
         <v>0.005</v>
       </c>
       <c r="C747" t="s">
-        <v>131</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -28336,7 +28336,7 @@
         <v>0.005</v>
       </c>
       <c r="C748" t="s">
-        <v>1467</v>
+        <v>131</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -28424,7 +28424,7 @@
         <v>0.005</v>
       </c>
       <c r="C756" t="s">
-        <v>705</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -28435,7 +28435,7 @@
         <v>0.005</v>
       </c>
       <c r="C757" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -28446,7 +28446,7 @@
         <v>0.005</v>
       </c>
       <c r="C758" t="s">
-        <v>1475</v>
+        <v>707</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -28556,7 +28556,7 @@
         <v>0.005</v>
       </c>
       <c r="C768" t="s">
-        <v>352</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -28567,7 +28567,7 @@
         <v>0.005</v>
       </c>
       <c r="C769" t="s">
-        <v>1485</v>
+        <v>352</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -28578,7 +28578,7 @@
         <v>0.005</v>
       </c>
       <c r="C770" t="s">
-        <v>719</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -28589,7 +28589,7 @@
         <v>0.005</v>
       </c>
       <c r="C771" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -28600,7 +28600,7 @@
         <v>0.005</v>
       </c>
       <c r="C772" t="s">
-        <v>1487</v>
+        <v>719</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -28677,7 +28677,7 @@
         <v>0.005</v>
       </c>
       <c r="C779" t="s">
-        <v>927</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -28688,7 +28688,7 @@
         <v>0.005</v>
       </c>
       <c r="C780" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -28699,7 +28699,7 @@
         <v>0.005</v>
       </c>
       <c r="C781" t="s">
-        <v>78</v>
+        <v>927</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -28710,7 +28710,7 @@
         <v>0.005</v>
       </c>
       <c r="C782" t="s">
-        <v>1495</v>
+        <v>78</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -28732,7 +28732,7 @@
         <v>0.005</v>
       </c>
       <c r="C784" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -28743,7 +28743,7 @@
         <v>0.005</v>
       </c>
       <c r="C785" t="s">
-        <v>1497</v>
+        <v>89</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -28754,7 +28754,7 @@
         <v>0.005</v>
       </c>
       <c r="C786" t="s">
-        <v>89</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -28974,7 +28974,7 @@
         <v>0.005</v>
       </c>
       <c r="C806" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -29183,7 +29183,7 @@
         <v>0.005</v>
       </c>
       <c r="C825" t="s">
-        <v>533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -29194,7 +29194,7 @@
         <v>0.005</v>
       </c>
       <c r="C826" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -29205,7 +29205,7 @@
         <v>0.005</v>
       </c>
       <c r="C827" t="s">
-        <v>1532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -29348,7 +29348,7 @@
         <v>0.005</v>
       </c>
       <c r="C840" t="s">
-        <v>939</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -29359,7 +29359,7 @@
         <v>0.005</v>
       </c>
       <c r="C841" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -29370,7 +29370,7 @@
         <v>0.005</v>
       </c>
       <c r="C842" t="s">
-        <v>1545</v>
+        <v>939</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -29403,7 +29403,7 @@
         <v>0.005</v>
       </c>
       <c r="C845" t="s">
-        <v>1548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -29414,7 +29414,7 @@
         <v>0.005</v>
       </c>
       <c r="C846" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -29425,7 +29425,7 @@
         <v>0.005</v>
       </c>
       <c r="C847" t="s">
-        <v>837</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -29447,7 +29447,7 @@
         <v>0.005</v>
       </c>
       <c r="C849" t="s">
-        <v>1551</v>
+        <v>837</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -29469,7 +29469,7 @@
         <v>0.005</v>
       </c>
       <c r="C851" t="s">
-        <v>555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -29524,7 +29524,7 @@
         <v>0.005</v>
       </c>
       <c r="C856" t="s">
-        <v>1555</v>
+        <v>34</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -29535,7 +29535,7 @@
         <v>0.005</v>
       </c>
       <c r="C857" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -29546,7 +29546,7 @@
         <v>0.004</v>
       </c>
       <c r="C858" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -29557,7 +29557,7 @@
         <v>0.004</v>
       </c>
       <c r="C859" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -29568,7 +29568,7 @@
         <v>0.004</v>
       </c>
       <c r="C860" t="s">
-        <v>809</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -29579,7 +29579,7 @@
         <v>0.004</v>
       </c>
       <c r="C861" t="s">
-        <v>34</v>
+        <v>809</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -29722,7 +29722,7 @@
         <v>0.004</v>
       </c>
       <c r="C874" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -29843,7 +29843,7 @@
         <v>0.004</v>
       </c>
       <c r="C885" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -29975,7 +29975,7 @@
         <v>0.004</v>
       </c>
       <c r="C897" t="s">
-        <v>1585</v>
+        <v>42</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -29986,7 +29986,7 @@
         <v>0.004</v>
       </c>
       <c r="C898" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -29997,7 +29997,7 @@
         <v>0.004</v>
       </c>
       <c r="C899" t="s">
-        <v>43</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -30063,7 +30063,7 @@
         <v>0.004</v>
       </c>
       <c r="C905" t="s">
-        <v>282</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -30074,7 +30074,7 @@
         <v>0.004</v>
       </c>
       <c r="C906" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -30085,7 +30085,7 @@
         <v>0.004</v>
       </c>
       <c r="C907" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -30096,7 +30096,7 @@
         <v>0.004</v>
       </c>
       <c r="C908" t="s">
-        <v>1593</v>
+        <v>203</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -30195,7 +30195,7 @@
         <v>0.004</v>
       </c>
       <c r="C917" t="s">
-        <v>1601</v>
+        <v>135</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -30206,7 +30206,7 @@
         <v>0.004</v>
       </c>
       <c r="C918" t="s">
-        <v>135</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -30272,7 +30272,7 @@
         <v>0.004</v>
       </c>
       <c r="C924" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -30316,7 +30316,7 @@
         <v>0.004</v>
       </c>
       <c r="C928" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -30349,7 +30349,7 @@
         <v>0.004</v>
       </c>
       <c r="C931" t="s">
-        <v>1610</v>
+        <v>646</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -30360,7 +30360,7 @@
         <v>0.004</v>
       </c>
       <c r="C932" t="s">
-        <v>647</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -30382,7 +30382,7 @@
         <v>0.004</v>
       </c>
       <c r="C934" t="s">
-        <v>1612</v>
+        <v>49</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -30393,7 +30393,7 @@
         <v>0.004</v>
       </c>
       <c r="C935" t="s">
-        <v>49</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -30404,7 +30404,7 @@
         <v>0.004</v>
       </c>
       <c r="C936" t="s">
-        <v>1613</v>
+        <v>964</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -30415,7 +30415,7 @@
         <v>0.004</v>
       </c>
       <c r="C937" t="s">
-        <v>963</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -30481,7 +30481,7 @@
         <v>0.004</v>
       </c>
       <c r="C943" t="s">
-        <v>217</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -30492,7 +30492,7 @@
         <v>0.004</v>
       </c>
       <c r="C944" t="s">
-        <v>1616</v>
+        <v>217</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -31856,7 +31856,7 @@
         <v>0.003</v>
       </c>
       <c r="C1068" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1069" spans="1:3">
@@ -31867,7 +31867,7 @@
         <v>0.003</v>
       </c>
       <c r="C1069" t="s">
-        <v>120</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
@@ -31878,7 +31878,7 @@
         <v>0.003</v>
       </c>
       <c r="C1070" t="s">
-        <v>1733</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
@@ -31900,7 +31900,7 @@
         <v>0.003</v>
       </c>
       <c r="C1072" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1073" spans="1:3">
@@ -32659,7 +32659,7 @@
         <v>0.003</v>
       </c>
       <c r="C1141" t="s">
-        <v>736</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
@@ -32670,7 +32670,7 @@
         <v>0.003</v>
       </c>
       <c r="C1142" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
@@ -32681,7 +32681,7 @@
         <v>0.003</v>
       </c>
       <c r="C1143" t="s">
-        <v>1800</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1144" spans="1:3">
@@ -33517,7 +33517,7 @@
         <v>0.003</v>
       </c>
       <c r="C1219" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -35134,7 +35134,7 @@
         <v>0.003</v>
       </c>
       <c r="C1366" t="s">
-        <v>439</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
@@ -35145,7 +35145,7 @@
         <v>0.003</v>
       </c>
       <c r="C1367" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -35156,7 +35156,7 @@
         <v>0.003</v>
       </c>
       <c r="C1368" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -35167,7 +35167,7 @@
         <v>0.003</v>
       </c>
       <c r="C1369" t="s">
-        <v>24</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -35178,7 +35178,7 @@
         <v>0.003</v>
       </c>
       <c r="C1370" t="s">
-        <v>2022</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -35189,7 +35189,7 @@
         <v>0.003</v>
       </c>
       <c r="C1371" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -35200,7 +35200,7 @@
         <v>0.003</v>
       </c>
       <c r="C1372" t="s">
-        <v>2024</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -35255,7 +35255,7 @@
         <v>0.003</v>
       </c>
       <c r="C1377" t="s">
-        <v>443</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -35266,7 +35266,7 @@
         <v>0.003</v>
       </c>
       <c r="C1378" t="s">
-        <v>2029</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -35420,7 +35420,7 @@
         <v>0.003</v>
       </c>
       <c r="C1392" t="s">
-        <v>448</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -35431,7 +35431,7 @@
         <v>0.003</v>
       </c>
       <c r="C1393" t="s">
-        <v>2043</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -35464,7 +35464,7 @@
         <v>0.003</v>
       </c>
       <c r="C1396" t="s">
-        <v>164</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
@@ -35475,7 +35475,7 @@
         <v>0.003</v>
       </c>
       <c r="C1397" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -35486,7 +35486,7 @@
         <v>0.003</v>
       </c>
       <c r="C1398" t="s">
-        <v>2047</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -36102,7 +36102,7 @@
         <v>0.003</v>
       </c>
       <c r="C1454" t="s">
-        <v>828</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1455" spans="1:3">
@@ -36113,7 +36113,7 @@
         <v>0.003</v>
       </c>
       <c r="C1455" t="s">
-        <v>2100</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1456" spans="1:3">
@@ -36201,7 +36201,7 @@
         <v>0.003</v>
       </c>
       <c r="C1463" t="s">
-        <v>469</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1464" spans="1:3">
@@ -36212,7 +36212,7 @@
         <v>0.003</v>
       </c>
       <c r="C1464" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
@@ -36223,7 +36223,7 @@
         <v>0.003</v>
       </c>
       <c r="C1465" t="s">
-        <v>2109</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
@@ -36355,7 +36355,7 @@
         <v>0.003</v>
       </c>
       <c r="C1477" t="s">
-        <v>925</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
@@ -36366,7 +36366,7 @@
         <v>0.003</v>
       </c>
       <c r="C1478" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
@@ -36377,7 +36377,7 @@
         <v>0.003</v>
       </c>
       <c r="C1479" t="s">
-        <v>2122</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -36597,7 +36597,7 @@
         <v>0.003</v>
       </c>
       <c r="C1499" t="s">
-        <v>485</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1500" spans="1:3">
@@ -36608,7 +36608,7 @@
         <v>0.003</v>
       </c>
       <c r="C1500" t="s">
-        <v>831</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1501" spans="1:3">
@@ -36619,7 +36619,7 @@
         <v>0.003</v>
       </c>
       <c r="C1501" t="s">
-        <v>2142</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
@@ -36784,7 +36784,7 @@
         <v>0.002</v>
       </c>
       <c r="C1516" t="s">
-        <v>241</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
@@ -36795,7 +36795,7 @@
         <v>0.002</v>
       </c>
       <c r="C1517" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
@@ -36806,7 +36806,7 @@
         <v>0.002</v>
       </c>
       <c r="C1518" t="s">
-        <v>2157</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
@@ -36916,7 +36916,7 @@
         <v>0.002</v>
       </c>
       <c r="C1528" t="s">
-        <v>496</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
@@ -36927,7 +36927,7 @@
         <v>0.002</v>
       </c>
       <c r="C1529" t="s">
-        <v>2167</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
@@ -37059,7 +37059,7 @@
         <v>0.002</v>
       </c>
       <c r="C1541" t="s">
-        <v>2179</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
@@ -37070,7 +37070,7 @@
         <v>0.002</v>
       </c>
       <c r="C1542" t="s">
-        <v>2180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
@@ -37081,7 +37081,7 @@
         <v>0.002</v>
       </c>
       <c r="C1543" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
@@ -37092,7 +37092,7 @@
         <v>0.002</v>
       </c>
       <c r="C1544" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
@@ -37103,7 +37103,7 @@
         <v>0.002</v>
       </c>
       <c r="C1545" t="s">
-        <v>27</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
@@ -37114,7 +37114,7 @@
         <v>0.002</v>
       </c>
       <c r="C1546" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
@@ -37125,7 +37125,7 @@
         <v>0.002</v>
       </c>
       <c r="C1547" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
@@ -37136,7 +37136,7 @@
         <v>0.002</v>
       </c>
       <c r="C1548" t="s">
-        <v>501</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
@@ -37422,7 +37422,7 @@
         <v>0.002</v>
       </c>
       <c r="C1574" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
@@ -37554,7 +37554,7 @@
         <v>0.002</v>
       </c>
       <c r="C1586" t="s">
-        <v>2219</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1587" spans="1:3">
@@ -37565,7 +37565,7 @@
         <v>0.002</v>
       </c>
       <c r="C1587" t="s">
-        <v>525</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
@@ -37774,7 +37774,7 @@
         <v>0.002</v>
       </c>
       <c r="C1606" t="s">
-        <v>542</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1607" spans="1:3">
@@ -37807,7 +37807,7 @@
         <v>0.002</v>
       </c>
       <c r="C1609" t="s">
-        <v>836</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1610" spans="1:3">
@@ -37818,7 +37818,7 @@
         <v>0.002</v>
       </c>
       <c r="C1610" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1611" spans="1:3">
@@ -37829,7 +37829,7 @@
         <v>0.002</v>
       </c>
       <c r="C1611" t="s">
-        <v>2241</v>
+        <v>542</v>
       </c>
     </row>
     <row r="1612" spans="1:3">
@@ -38005,7 +38005,7 @@
         <v>0.002</v>
       </c>
       <c r="C1627" t="s">
-        <v>548</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1628" spans="1:3">
@@ -38016,7 +38016,7 @@
         <v>0.002</v>
       </c>
       <c r="C1628" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1629" spans="1:3">
@@ -38027,7 +38027,7 @@
         <v>0.002</v>
       </c>
       <c r="C1629" t="s">
-        <v>2256</v>
+        <v>549</v>
       </c>
     </row>
     <row r="1630" spans="1:3">
@@ -38049,7 +38049,7 @@
         <v>0.002</v>
       </c>
       <c r="C1631" t="s">
-        <v>551</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1632" spans="1:3">
@@ -38060,7 +38060,7 @@
         <v>0.002</v>
       </c>
       <c r="C1632" t="s">
-        <v>2257</v>
+        <v>552</v>
       </c>
     </row>
     <row r="1633" spans="1:3">
@@ -38148,7 +38148,7 @@
         <v>0.002</v>
       </c>
       <c r="C1640" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1641" spans="1:3">
@@ -38269,7 +38269,7 @@
         <v>0.002</v>
       </c>
       <c r="C1651" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="1652" spans="1:3">
@@ -38368,7 +38368,7 @@
         <v>0.002</v>
       </c>
       <c r="C1660" t="s">
-        <v>2280</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1661" spans="1:3">
@@ -38379,7 +38379,7 @@
         <v>0.002</v>
       </c>
       <c r="C1661" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1662" spans="1:3">
@@ -38390,7 +38390,7 @@
         <v>0.002</v>
       </c>
       <c r="C1662" t="s">
-        <v>257</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
@@ -38401,7 +38401,7 @@
         <v>0.002</v>
       </c>
       <c r="C1663" t="s">
-        <v>570</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1664" spans="1:3">
@@ -38423,7 +38423,7 @@
         <v>0.002</v>
       </c>
       <c r="C1665" t="s">
-        <v>37</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1666" spans="1:3">
@@ -38577,7 +38577,7 @@
         <v>0.002</v>
       </c>
       <c r="C1679" t="s">
-        <v>2296</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1680" spans="1:3">
@@ -38588,7 +38588,7 @@
         <v>0.002</v>
       </c>
       <c r="C1680" t="s">
-        <v>769</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1681" spans="1:3">
@@ -38621,7 +38621,7 @@
         <v>0.002</v>
       </c>
       <c r="C1683" t="s">
-        <v>2299</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1684" spans="1:3">
@@ -38632,7 +38632,7 @@
         <v>0.002</v>
       </c>
       <c r="C1684" t="s">
-        <v>791</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1685" spans="1:3">
@@ -38643,7 +38643,7 @@
         <v>0.002</v>
       </c>
       <c r="C1685" t="s">
-        <v>591</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1686" spans="1:3">
@@ -38764,7 +38764,7 @@
         <v>0.002</v>
       </c>
       <c r="C1696" t="s">
-        <v>595</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1697" spans="1:3">
@@ -38775,7 +38775,7 @@
         <v>0.002</v>
       </c>
       <c r="C1697" t="s">
-        <v>2309</v>
+        <v>596</v>
       </c>
     </row>
     <row r="1698" spans="1:3">
@@ -38786,7 +38786,7 @@
         <v>0.002</v>
       </c>
       <c r="C1698" t="s">
-        <v>40</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1699" spans="1:3">
@@ -38819,7 +38819,7 @@
         <v>0.002</v>
       </c>
       <c r="C1701" t="s">
-        <v>599</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1702" spans="1:3">
@@ -38830,7 +38830,7 @@
         <v>0.002</v>
       </c>
       <c r="C1702" t="s">
-        <v>2312</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1703" spans="1:3">
@@ -38841,7 +38841,7 @@
         <v>0.002</v>
       </c>
       <c r="C1703" t="s">
-        <v>600</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1704" spans="1:3">
@@ -38852,7 +38852,7 @@
         <v>0.002</v>
       </c>
       <c r="C1704" t="s">
-        <v>269</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1705" spans="1:3">
@@ -38863,7 +38863,7 @@
         <v>0.002</v>
       </c>
       <c r="C1705" t="s">
-        <v>2313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1706" spans="1:3">
@@ -38874,7 +38874,7 @@
         <v>0.002</v>
       </c>
       <c r="C1706" t="s">
-        <v>2314</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1707" spans="1:3">
@@ -38885,7 +38885,7 @@
         <v>0.002</v>
       </c>
       <c r="C1707" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1708" spans="1:3">
@@ -38896,7 +38896,7 @@
         <v>0.002</v>
       </c>
       <c r="C1708" t="s">
-        <v>270</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1709" spans="1:3">
@@ -38918,7 +38918,7 @@
         <v>0.002</v>
       </c>
       <c r="C1710" t="s">
-        <v>605</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1711" spans="1:3">
@@ -38929,7 +38929,7 @@
         <v>0.002</v>
       </c>
       <c r="C1711" t="s">
-        <v>954</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1712" spans="1:3">
@@ -38940,7 +38940,7 @@
         <v>0.002</v>
       </c>
       <c r="C1712" t="s">
-        <v>955</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1713" spans="1:3">
@@ -38951,7 +38951,7 @@
         <v>0.002</v>
       </c>
       <c r="C1713" t="s">
-        <v>99</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1714" spans="1:3">
@@ -38962,7 +38962,7 @@
         <v>0.002</v>
       </c>
       <c r="C1714" t="s">
-        <v>2316</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1715" spans="1:3">
@@ -39028,7 +39028,7 @@
         <v>0.002</v>
       </c>
       <c r="C1720" t="s">
-        <v>794</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1721" spans="1:3">
@@ -39050,7 +39050,7 @@
         <v>0.002</v>
       </c>
       <c r="C1722" t="s">
-        <v>274</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1723" spans="1:3">
@@ -39094,7 +39094,7 @@
         <v>0.002</v>
       </c>
       <c r="C1726" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1727" spans="1:3">
@@ -39127,7 +39127,7 @@
         <v>0.002</v>
       </c>
       <c r="C1729" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1730" spans="1:3">
@@ -39138,7 +39138,7 @@
         <v>0.002</v>
       </c>
       <c r="C1730" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
@@ -39325,7 +39325,7 @@
         <v>0.002</v>
       </c>
       <c r="C1747" t="s">
-        <v>287</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
@@ -39336,7 +39336,7 @@
         <v>0.002</v>
       </c>
       <c r="C1748" t="s">
-        <v>633</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1749" spans="1:3">
@@ -39358,7 +39358,7 @@
         <v>0.002</v>
       </c>
       <c r="C1750" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
@@ -39380,7 +39380,7 @@
         <v>0.002</v>
       </c>
       <c r="C1752" t="s">
-        <v>293</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
@@ -39391,7 +39391,7 @@
         <v>0.002</v>
       </c>
       <c r="C1753" t="s">
-        <v>2335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
@@ -39435,7 +39435,7 @@
         <v>0.002</v>
       </c>
       <c r="C1757" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
@@ -39446,7 +39446,7 @@
         <v>0.002</v>
       </c>
       <c r="C1758" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
@@ -39479,7 +39479,7 @@
         <v>0.002</v>
       </c>
       <c r="C1761" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="1762" spans="1:3">
@@ -39490,7 +39490,7 @@
         <v>0.002</v>
       </c>
       <c r="C1762" t="s">
-        <v>2340</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
@@ -39501,7 +39501,7 @@
         <v>0.002</v>
       </c>
       <c r="C1763" t="s">
-        <v>649</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1764" spans="1:3">
@@ -39545,7 +39545,7 @@
         <v>0.002</v>
       </c>
       <c r="C1767" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1768" spans="1:3">
@@ -39644,7 +39644,7 @@
         <v>0.002</v>
       </c>
       <c r="C1776" t="s">
-        <v>666</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1777" spans="1:3">
@@ -39655,7 +39655,7 @@
         <v>0.002</v>
       </c>
       <c r="C1777" t="s">
-        <v>303</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1778" spans="1:3">
@@ -39666,7 +39666,7 @@
         <v>0.002</v>
       </c>
       <c r="C1778" t="s">
-        <v>219</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1779" spans="1:3">
@@ -39677,7 +39677,7 @@
         <v>0.002</v>
       </c>
       <c r="C1779" t="s">
-        <v>671</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
@@ -39864,7 +39864,7 @@
         <v>0.002</v>
       </c>
       <c r="C1796" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
@@ -39908,7 +39908,7 @@
         <v>0.002</v>
       </c>
       <c r="C1800" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1801" spans="1:3">
@@ -40149,7 +40149,7 @@
         <v>0.049</v>
       </c>
       <c r="C14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -40234,7 +40234,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="C22" t="s">
         <v>2371</v>
@@ -40259,7 +40259,7 @@
         <v>0.04</v>
       </c>
       <c r="C24" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -40292,7 +40292,7 @@
         <v>0.035</v>
       </c>
       <c r="C27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -40402,7 +40402,7 @@
         <v>0.025</v>
       </c>
       <c r="C37" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -40424,7 +40424,7 @@
         <v>0.023</v>
       </c>
       <c r="C39" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -40435,7 +40435,7 @@
         <v>0.023</v>
       </c>
       <c r="C40" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -40574,7 +40574,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="C3" t="s">
         <v>2386</v>
@@ -40585,7 +40585,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.245</v>
+        <v>0.246</v>
       </c>
       <c r="C4" t="s">
         <v>2387</v>
@@ -40607,7 +40607,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.208</v>
+        <v>0.207</v>
       </c>
       <c r="C6" t="s">
         <v>2388</v>
@@ -40618,7 +40618,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="C7" t="s">
         <v>2328</v>
@@ -40651,7 +40651,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.13</v>
+        <v>0.131</v>
       </c>
       <c r="C10" t="s">
         <v>2390</v>
@@ -40665,7 +40665,7 @@
         <v>0.115</v>
       </c>
       <c r="C11" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -40698,7 +40698,7 @@
         <v>0.104</v>
       </c>
       <c r="C14" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -40717,7 +40717,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="C16" t="s">
         <v>2391</v>
@@ -40808,7 +40808,7 @@
         <v>0.076</v>
       </c>
       <c r="C24" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -40838,7 +40838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C27" t="s">
         <v>2396</v>
@@ -40874,7 +40874,7 @@
         <v>0.066</v>
       </c>
       <c r="C30" t="s">
-        <v>974</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -40885,7 +40885,7 @@
         <v>0.066</v>
       </c>
       <c r="C31" t="s">
-        <v>1018</v>
+        <v>974</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -40918,7 +40918,7 @@
         <v>0.064</v>
       </c>
       <c r="C34" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -40940,7 +40940,7 @@
         <v>0.063</v>
       </c>
       <c r="C36" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -40948,7 +40948,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="C37" t="s">
         <v>2401</v>
@@ -40984,7 +40984,7 @@
         <v>0.059</v>
       </c>
       <c r="C40" t="s">
-        <v>2403</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -40995,7 +40995,7 @@
         <v>0.059</v>
       </c>
       <c r="C41" t="s">
-        <v>1381</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -41237,7 +41237,7 @@
         <v>0.047</v>
       </c>
       <c r="C63" t="s">
-        <v>472</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -41248,7 +41248,7 @@
         <v>0.047</v>
       </c>
       <c r="C64" t="s">
-        <v>2409</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -41278,7 +41278,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="C67" t="s">
         <v>2411</v>
@@ -41292,7 +41292,7 @@
         <v>0.045</v>
       </c>
       <c r="C68" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -41402,7 +41402,7 @@
         <v>0.042</v>
       </c>
       <c r="C78" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -41413,7 +41413,7 @@
         <v>0.041</v>
       </c>
       <c r="C79" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -41468,7 +41468,7 @@
         <v>0.04</v>
       </c>
       <c r="C84" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -41523,7 +41523,7 @@
         <v>0.039</v>
       </c>
       <c r="C89" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -41534,7 +41534,7 @@
         <v>0.039</v>
       </c>
       <c r="C90" t="s">
-        <v>2421</v>
+        <v>738</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -41545,7 +41545,7 @@
         <v>0.039</v>
       </c>
       <c r="C91" t="s">
-        <v>740</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -41564,7 +41564,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="C93" t="s">
         <v>2423</v>
@@ -41740,7 +41740,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="C109" t="s">
         <v>2436</v>
@@ -41754,7 +41754,7 @@
         <v>0.035</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -41765,7 +41765,7 @@
         <v>0.035</v>
       </c>
       <c r="C111" t="s">
-        <v>2437</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -41787,7 +41787,7 @@
         <v>0.035</v>
       </c>
       <c r="C113" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -41798,7 +41798,7 @@
         <v>0.035</v>
       </c>
       <c r="C114" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -41809,7 +41809,7 @@
         <v>0.035</v>
       </c>
       <c r="C115" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -41853,7 +41853,7 @@
         <v>0.034</v>
       </c>
       <c r="C119" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -41864,7 +41864,7 @@
         <v>0.034</v>
       </c>
       <c r="C120" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -41886,7 +41886,7 @@
         <v>0.034</v>
       </c>
       <c r="C122" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -41905,7 +41905,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="C124" t="s">
         <v>2443</v>
@@ -41941,7 +41941,7 @@
         <v>0.033</v>
       </c>
       <c r="C127" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -41952,7 +41952,7 @@
         <v>0.033</v>
       </c>
       <c r="C128" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -42092,7 +42092,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="C141" t="s">
         <v>2456</v>
@@ -42128,7 +42128,7 @@
         <v>0.031</v>
       </c>
       <c r="C144" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -42161,7 +42161,7 @@
         <v>0.03</v>
       </c>
       <c r="C147" t="s">
-        <v>2160</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -42172,7 +42172,7 @@
         <v>0.03</v>
       </c>
       <c r="C148" t="s">
-        <v>2459</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -42194,7 +42194,7 @@
         <v>0.03</v>
       </c>
       <c r="C150" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -42216,7 +42216,7 @@
         <v>0.03</v>
       </c>
       <c r="C152" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -42337,7 +42337,7 @@
         <v>0.029</v>
       </c>
       <c r="C163" t="s">
-        <v>2468</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -42348,7 +42348,7 @@
         <v>0.029</v>
       </c>
       <c r="C164" t="s">
-        <v>2230</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -42370,7 +42370,7 @@
         <v>0.029</v>
       </c>
       <c r="C166" t="s">
-        <v>340</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -42381,7 +42381,7 @@
         <v>0.029</v>
       </c>
       <c r="C167" t="s">
-        <v>2470</v>
+        <v>340</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -42414,7 +42414,7 @@
         <v>0.028</v>
       </c>
       <c r="C170" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -42425,7 +42425,7 @@
         <v>0.028</v>
       </c>
       <c r="C171" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -42436,7 +42436,7 @@
         <v>0.028</v>
       </c>
       <c r="C172" t="s">
-        <v>1553</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -42458,7 +42458,7 @@
         <v>0.028</v>
       </c>
       <c r="C174" t="s">
-        <v>1361</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -42535,7 +42535,7 @@
         <v>0.027</v>
       </c>
       <c r="C181" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -42557,7 +42557,7 @@
         <v>0.027</v>
       </c>
       <c r="C183" t="s">
-        <v>2280</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -42568,7 +42568,7 @@
         <v>0.027</v>
       </c>
       <c r="C184" t="s">
-        <v>570</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -42579,7 +42579,7 @@
         <v>0.027</v>
       </c>
       <c r="C185" t="s">
-        <v>152</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -42590,7 +42590,7 @@
         <v>0.027</v>
       </c>
       <c r="C186" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -42623,7 +42623,7 @@
         <v>0.027</v>
       </c>
       <c r="C189" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -42667,7 +42667,7 @@
         <v>0.027</v>
       </c>
       <c r="C193" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -42678,7 +42678,7 @@
         <v>0.027</v>
       </c>
       <c r="C194" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -42744,7 +42744,7 @@
         <v>0.026</v>
       </c>
       <c r="C200" t="s">
-        <v>1582</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -42755,7 +42755,7 @@
         <v>0.026</v>
       </c>
       <c r="C201" t="s">
-        <v>2479</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -42788,7 +42788,7 @@
         <v>0.026</v>
       </c>
       <c r="C204" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -42796,7 +42796,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="C205" t="s">
         <v>1292</v>
@@ -42821,7 +42821,7 @@
         <v>0.025</v>
       </c>
       <c r="C207" t="s">
-        <v>1033</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -42832,7 +42832,7 @@
         <v>0.025</v>
       </c>
       <c r="C208" t="s">
-        <v>1184</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -42843,7 +42843,7 @@
         <v>0.025</v>
       </c>
       <c r="C209" t="s">
-        <v>286</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -42854,7 +42854,7 @@
         <v>0.025</v>
       </c>
       <c r="C210" t="s">
-        <v>1402</v>
+        <v>286</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -42876,7 +42876,7 @@
         <v>0.025</v>
       </c>
       <c r="C212" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -42898,7 +42898,7 @@
         <v>0.024</v>
       </c>
       <c r="C214" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -42920,7 +42920,7 @@
         <v>0.024</v>
       </c>
       <c r="C216" t="s">
-        <v>1193</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -42931,7 +42931,7 @@
         <v>0.024</v>
       </c>
       <c r="C217" t="s">
-        <v>2365</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -42994,10 +42994,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="C223" t="s">
-        <v>1425</v>
+        <v>962</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -43008,7 +43008,7 @@
         <v>0.023</v>
       </c>
       <c r="C224" t="s">
-        <v>964</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -43085,7 +43085,7 @@
         <v>0.023</v>
       </c>
       <c r="C231" t="s">
-        <v>2485</v>
+        <v>671</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -43107,7 +43107,7 @@
         <v>0.023</v>
       </c>
       <c r="C233" t="s">
-        <v>672</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -43140,7 +43140,7 @@
         <v>0.023</v>
       </c>
       <c r="C236" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -43151,7 +43151,7 @@
         <v>0.023</v>
       </c>
       <c r="C237" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -43162,7 +43162,7 @@
         <v>0.022</v>
       </c>
       <c r="C238" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -43250,7 +43250,7 @@
         <v>0.022</v>
       </c>
       <c r="C246" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -43261,7 +43261,7 @@
         <v>0.022</v>
       </c>
       <c r="C247" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -43272,7 +43272,7 @@
         <v>0.021</v>
       </c>
       <c r="C248" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -43283,7 +43283,7 @@
         <v>0.021</v>
       </c>
       <c r="C249" t="s">
-        <v>2486</v>
+        <v>341</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -43294,7 +43294,7 @@
         <v>0.021</v>
       </c>
       <c r="C250" t="s">
-        <v>341</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -43349,7 +43349,7 @@
         <v>0.021</v>
       </c>
       <c r="C255" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -43360,7 +43360,7 @@
         <v>0.021</v>
       </c>
       <c r="C256" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -43404,7 +43404,7 @@
         <v>0.02</v>
       </c>
       <c r="C260" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -43426,7 +43426,7 @@
         <v>0.02</v>
       </c>
       <c r="C262" t="s">
-        <v>1088</v>
+        <v>727</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -43437,7 +43437,7 @@
         <v>0.02</v>
       </c>
       <c r="C263" t="s">
-        <v>727</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -43511,7 +43511,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="C270" t="s">
         <v>1026</v>
@@ -43602,7 +43602,7 @@
         <v>0.018</v>
       </c>
       <c r="C278" t="s">
-        <v>560</v>
+        <v>748</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -43613,7 +43613,7 @@
         <v>0.018</v>
       </c>
       <c r="C279" t="s">
-        <v>748</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -43624,7 +43624,7 @@
         <v>0.018</v>
       </c>
       <c r="C280" t="s">
-        <v>1019</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -43657,7 +43657,7 @@
         <v>0.018</v>
       </c>
       <c r="C283" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -45152,7 +45152,7 @@
         <v>0.006</v>
       </c>
       <c r="C122" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -45163,7 +45163,7 @@
         <v>0.006</v>
       </c>
       <c r="C123" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="124" spans="1:3">
